--- a/Data2/תכנון לו''ז  תחקור.xlsx
+++ b/Data2/תכנון לו''ז  תחקור.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\אישי\עבודה\צוות ניתוח נתונים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728828DD-85AA-4B38-A9D1-8FD438736B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC9436-587A-4DEF-8D8C-2F0AD3956E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh7L6q5QMuycObgZfeVbko0LGVZcw=="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="255">
   <si>
     <t>תחקור מפקדים - תכנון לו"ז</t>
   </si>
@@ -440,9 +437,6 @@
     <t>גדוד 411 אגד 282</t>
   </si>
   <si>
-    <t>סמג"ד,קל"ג</t>
-  </si>
-  <si>
     <t>שימוש נרחב ברכבת בהגעה מהבית ,היה ניסיון ליצור קו איסוף נפל בגלל העדפת חיילים שימוש ברכבת</t>
   </si>
   <si>
@@ -653,9 +647,6 @@
     <t>פיקודי</t>
   </si>
   <si>
-    <t>הבה"דים</t>
-  </si>
-  <si>
     <t>הבא"חים</t>
   </si>
   <si>
@@ -697,16 +688,153 @@
   <si>
     <t>דרג</t>
   </si>
+  <si>
+    <t>בית הבה"דים</t>
+  </si>
+  <si>
+    <t>בית ח"א</t>
+  </si>
+  <si>
+    <t>לא ידוע</t>
+  </si>
+  <si>
+    <t>ביסלא</t>
+  </si>
+  <si>
+    <t>ביהס לגדסר 84/846</t>
+  </si>
+  <si>
+    <t>בח"א 6</t>
+  </si>
+  <si>
+    <t>ביסלח 314</t>
+  </si>
+  <si>
+    <t>גדוד 84/432</t>
+  </si>
+  <si>
+    <t>קומנדו/ 212</t>
+  </si>
+  <si>
+    <t>בא"ח גולני</t>
+  </si>
+  <si>
+    <t>ביסלח/חט 828</t>
+  </si>
+  <si>
+    <t>בה"ד 6 קריית ההדרכה</t>
+  </si>
+  <si>
+    <t>בה"ד חינוך</t>
+  </si>
+  <si>
+    <t>בה"ד 10</t>
+  </si>
+  <si>
+    <t>סמגד,קלג</t>
+  </si>
+  <si>
+    <t>סמגד,מפ</t>
+  </si>
+  <si>
+    <t>מפ פלסם,קלג</t>
+  </si>
+  <si>
+    <t>מפקד גף רכב</t>
+  </si>
+  <si>
+    <t>סמפ</t>
+  </si>
+  <si>
+    <t>מפם</t>
+  </si>
+  <si>
+    <t>מפ פלסמ/קלג</t>
+  </si>
+  <si>
+    <t>מפקד גף לוגיסטיקה</t>
+  </si>
+  <si>
+    <t>מפקד בא"ח</t>
+  </si>
+  <si>
+    <t>קל"ח, סמח"ט, מ"פ</t>
+  </si>
+  <si>
+    <t>מג"ד 532 וק' הספקה</t>
+  </si>
+  <si>
+    <t>מטא"ם, מפקד גף לוגיסטיקה, נגדת הובלות</t>
+  </si>
+  <si>
+    <t>מטא"ם, מפקד גף לוגיסטיקה</t>
+  </si>
+  <si>
+    <t>סמגד, מפ פלסמ מ"פ ח'</t>
+  </si>
+  <si>
+    <t>מפקד בית הספר</t>
+  </si>
+  <si>
+    <t>נגד הובלות</t>
+  </si>
+  <si>
+    <t>מפקד פלסמ/קלג</t>
+  </si>
+  <si>
+    <t>קהס/קלג 906/קלג 890</t>
+  </si>
+  <si>
+    <t>נגדת תחזוקה</t>
+  </si>
+  <si>
+    <t>מפקד קורס- סגן</t>
+  </si>
+  <si>
+    <t>מפקדת קורס-סגן</t>
+  </si>
+  <si>
+    <t>זרוע יבשה</t>
+  </si>
+  <si>
+    <t>פיקוד מרכז</t>
+  </si>
+  <si>
+    <t>פיקוד דרום</t>
+  </si>
+  <si>
+    <t>צפון</t>
+  </si>
+  <si>
+    <t>פיקוד צפון</t>
+  </si>
+  <si>
+    <t>פיקוד ח"א</t>
+  </si>
+  <si>
+    <t>קריית הדרכה</t>
+  </si>
+  <si>
+    <t>פיקוד</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -773,8 +901,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +948,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9CC2E5"/>
         <bgColor rgb="FF9CC2E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1145,70 +1308,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1216,94 +1386,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{6F0CCF73-7272-4807-8CE0-18FBCDFE28CE}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{0FB741DD-879D-4ED7-AF58-D818235CAFD4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D549630B-284A-48EE-9B52-8255156C468D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3B3FBE0D-E952-44B3-8E03-FBE7CD732498}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{D0A1E8B7-CCBD-4C70-A5D9-F2A586BC36FF}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{4BD59CA0-E5DC-4073-A765-69B06168799D}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{8212900A-19D1-4A3A-B3EB-0919E461F858}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{785A198E-2BF7-4EAC-8A9E-E48428304CE2}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{D369436E-DACB-4EDA-9FC1-5FF6C22389B2}"/>
+    <cellStyle name="Normal 9" xfId="8" xr:uid="{7D808CCA-359E-41F6-9CE8-0EA53B540697}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1536,26 +1786,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3329,17 +3579,17 @@
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -3360,17 +3610,17 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -3391,17 +3641,17 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
@@ -3422,17 +3672,17 @@
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -3453,17 +3703,17 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
@@ -3484,17 +3734,17 @@
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -3515,17 +3765,17 @@
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -3546,17 +3796,17 @@
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -3577,17 +3827,17 @@
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -3608,17 +3858,17 @@
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -3639,17 +3889,17 @@
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
@@ -3667,28 +3917,28 @@
       <c r="AA11" s="19"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="56" t="s">
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
@@ -3702,13 +3952,13 @@
       <c r="AA12" s="19"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="58" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="22">
@@ -3738,10 +3988,10 @@
       <c r="L13" s="22">
         <v>9</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
@@ -3755,9 +4005,9 @@
       <c r="AA13" s="19"/>
     </row>
     <row r="14" spans="1:27" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="23" t="s">
         <v>88</v>
       </c>
@@ -3785,10 +4035,10 @@
       <c r="L14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="51"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -3802,10 +4052,10 @@
       <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="61" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -3838,12 +4088,12 @@
       <c r="L15" s="25">
         <v>4</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
@@ -3857,44 +4107,44 @@
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="61">
         <v>4</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="61">
         <v>6</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="61">
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="61">
         <v>5</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="61">
         <v>7</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="61">
         <v>0</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="61">
         <v>7</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="61">
         <v>4</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="61">
         <v>1</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -3908,24 +4158,24 @@
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="52" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -3939,24 +4189,24 @@
       <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="52" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -3970,24 +4220,24 @@
       <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="52" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
@@ -4001,24 +4251,24 @@
       <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="52" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
@@ -4032,24 +4282,24 @@
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="52" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -4063,24 +4313,24 @@
       <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="52" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -4094,48 +4344,48 @@
       <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="61">
         <v>3</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="61">
         <v>6</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="61">
         <v>0</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="61">
         <v>3</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="61">
         <v>7</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="61">
         <v>0</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="61">
         <v>3</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="61">
         <v>2</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="61">
         <v>1</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
@@ -4149,24 +4399,24 @@
       <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="52" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -4180,24 +4430,24 @@
       <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="52" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
@@ -4211,24 +4461,24 @@
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="52" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
@@ -4242,24 +4492,24 @@
       <c r="AA26" s="20"/>
     </row>
     <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="52" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
@@ -4273,24 +4523,24 @@
       <c r="AA27" s="20"/>
     </row>
     <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="52" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
@@ -4304,24 +4554,24 @@
       <c r="AA28" s="20"/>
     </row>
     <row r="29" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="52" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
@@ -4335,24 +4585,24 @@
       <c r="AA29" s="20"/>
     </row>
     <row r="30" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="47" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
@@ -4366,22 +4616,22 @@
       <c r="AA30" s="20"/>
     </row>
     <row r="31" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="51"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -4395,10 +4645,10 @@
       <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="61" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -4431,12 +4681,12 @@
       <c r="L32" s="26">
         <v>1</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
@@ -4450,44 +4700,44 @@
       <c r="AA32" s="20"/>
     </row>
     <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="55" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="59">
         <v>6</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="59">
         <v>7</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="59">
         <v>6</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="59">
         <v>2</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="59">
         <v>7</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="59">
         <v>1</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="59">
         <v>2</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="59">
         <v>2</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="59">
         <v>1</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -4501,24 +4751,24 @@
       <c r="AA33" s="19"/>
     </row>
     <row r="34" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="52" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -4532,24 +4782,24 @@
       <c r="AA34" s="19"/>
     </row>
     <row r="35" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="52" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="54"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -4563,24 +4813,24 @@
       <c r="AA35" s="19"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="52" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -4594,24 +4844,24 @@
       <c r="AA36" s="19"/>
     </row>
     <row r="37" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="52" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="54"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
@@ -4625,24 +4875,24 @@
       <c r="AA37" s="19"/>
     </row>
     <row r="38" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="52" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="54"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="51"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
@@ -4656,24 +4906,24 @@
       <c r="AA38" s="19"/>
     </row>
     <row r="39" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="52" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="54"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="51"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -4687,24 +4937,24 @@
       <c r="AA39" s="19"/>
     </row>
     <row r="40" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="52" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="51"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -4718,24 +4968,24 @@
       <c r="AA40" s="19"/>
     </row>
     <row r="41" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="52" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -4749,12 +4999,12 @@
       <c r="AA41" s="19"/>
     </row>
     <row r="42" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M42" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
+      <c r="M42" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -4768,12 +5018,12 @@
       <c r="AA42" s="19"/>
     </row>
     <row r="43" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M43" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
+      <c r="M43" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -4787,12 +5037,12 @@
       <c r="AA43" s="19"/>
     </row>
     <row r="44" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M44" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
+      <c r="M44" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -4806,12 +5056,12 @@
       <c r="AA44" s="19"/>
     </row>
     <row r="45" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M45" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
+      <c r="M45" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -4825,12 +5075,12 @@
       <c r="AA45" s="19"/>
     </row>
     <row r="46" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M46" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
+      <c r="M46" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -4845,7 +5095,7 @@
     </row>
     <row r="47" spans="1:27" ht="62.4" x14ac:dyDescent="0.25">
       <c r="M47" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
@@ -4863,12 +5113,12 @@
       <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M48" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
+      <c r="M48" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -4882,12 +5132,12 @@
       <c r="AA48" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M49" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
+      <c r="M49" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -4901,10 +5151,10 @@
       <c r="AA49" s="19"/>
     </row>
     <row r="50" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -4918,46 +5168,46 @@
       <c r="AA50" s="19"/>
     </row>
     <row r="51" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="D51" s="59">
+        <v>4</v>
+      </c>
+      <c r="E51" s="59">
+        <v>4</v>
+      </c>
+      <c r="F51" s="59">
+        <v>0</v>
+      </c>
+      <c r="G51" s="59">
+        <v>6</v>
+      </c>
+      <c r="H51" s="59">
+        <v>5</v>
+      </c>
+      <c r="I51" s="59">
+        <v>0</v>
+      </c>
+      <c r="J51" s="59">
+        <v>3</v>
+      </c>
+      <c r="K51" s="59">
+        <v>4</v>
+      </c>
+      <c r="L51" s="59">
+        <v>3</v>
+      </c>
+      <c r="M51" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="44">
-        <v>4</v>
-      </c>
-      <c r="E51" s="44">
-        <v>4</v>
-      </c>
-      <c r="F51" s="44">
-        <v>0</v>
-      </c>
-      <c r="G51" s="44">
-        <v>6</v>
-      </c>
-      <c r="H51" s="44">
-        <v>5</v>
-      </c>
-      <c r="I51" s="44">
-        <v>0</v>
-      </c>
-      <c r="J51" s="44">
-        <v>3</v>
-      </c>
-      <c r="K51" s="44">
-        <v>4</v>
-      </c>
-      <c r="L51" s="44">
-        <v>3</v>
-      </c>
-      <c r="M51" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="54"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="51"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -4971,24 +5221,24 @@
       <c r="AA51" s="19"/>
     </row>
     <row r="52" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="51"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -5002,24 +5252,24 @@
       <c r="AA52" s="19"/>
     </row>
     <row r="53" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="54"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="51"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -5033,24 +5283,24 @@
       <c r="AA53" s="19"/>
     </row>
     <row r="54" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="51"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -5064,20 +5314,20 @@
       <c r="AA54" s="19"/>
     </row>
     <row r="55" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
       <c r="M55" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N55" s="28"/>
       <c r="O55" s="25"/>
@@ -5095,42 +5345,42 @@
       <c r="AA55" s="19"/>
     </row>
     <row r="56" spans="1:27" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="D56" s="59">
+        <v>6</v>
+      </c>
+      <c r="E56" s="59">
+        <v>3</v>
+      </c>
+      <c r="F56" s="59">
+        <v>7</v>
+      </c>
+      <c r="G56" s="59">
+        <v>3</v>
+      </c>
+      <c r="H56" s="59">
+        <v>3</v>
+      </c>
+      <c r="I56" s="59">
+        <v>1</v>
+      </c>
+      <c r="J56" s="59">
+        <v>1</v>
+      </c>
+      <c r="K56" s="59">
+        <v>1</v>
+      </c>
+      <c r="L56" s="59">
+        <v>1</v>
+      </c>
+      <c r="M56" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D56" s="44">
-        <v>6</v>
-      </c>
-      <c r="E56" s="44">
-        <v>3</v>
-      </c>
-      <c r="F56" s="44">
-        <v>7</v>
-      </c>
-      <c r="G56" s="44">
-        <v>3</v>
-      </c>
-      <c r="H56" s="44">
-        <v>3</v>
-      </c>
-      <c r="I56" s="44">
-        <v>1</v>
-      </c>
-      <c r="J56" s="44">
-        <v>1</v>
-      </c>
-      <c r="K56" s="44">
-        <v>1</v>
-      </c>
-      <c r="L56" s="44">
-        <v>1</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
@@ -5148,20 +5398,20 @@
       <c r="AA56" s="19"/>
     </row>
     <row r="57" spans="1:27" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
       <c r="M57" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
@@ -5179,20 +5429,20 @@
       <c r="AA57" s="19"/>
     </row>
     <row r="58" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
       <c r="M58" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
@@ -5210,24 +5460,24 @@
       <c r="AA58" s="19"/>
     </row>
     <row r="59" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="54"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="51"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
@@ -5241,24 +5491,24 @@
       <c r="AA59" s="19"/>
     </row>
     <row r="60" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="54"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="51"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
@@ -5272,20 +5522,20 @@
       <c r="AA60" s="19"/>
     </row>
     <row r="61" spans="1:27" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
       <c r="M61" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
@@ -5303,20 +5553,20 @@
       <c r="AA61" s="19"/>
     </row>
     <row r="62" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
       <c r="M62" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
@@ -5334,14 +5584,14 @@
       <c r="AA62" s="19"/>
     </row>
     <row r="63" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="D63" s="26">
         <v>6</v>
@@ -5370,12 +5620,12 @@
       <c r="L63" s="26">
         <v>2</v>
       </c>
-      <c r="M63" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
+      <c r="M63" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="51"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
@@ -5389,44 +5639,44 @@
       <c r="AA63" s="19"/>
     </row>
     <row r="64" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="44" t="s">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="59">
+        <v>6</v>
+      </c>
+      <c r="E64" s="59">
+        <v>4</v>
+      </c>
+      <c r="F64" s="59">
+        <v>6</v>
+      </c>
+      <c r="G64" s="59">
+        <v>2</v>
+      </c>
+      <c r="H64" s="59">
+        <v>3</v>
+      </c>
+      <c r="I64" s="59">
+        <v>1</v>
+      </c>
+      <c r="J64" s="59">
+        <v>2</v>
+      </c>
+      <c r="K64" s="59">
+        <v>1</v>
+      </c>
+      <c r="L64" s="59">
+        <v>1</v>
+      </c>
+      <c r="M64" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="44">
-        <v>6</v>
-      </c>
-      <c r="E64" s="44">
-        <v>4</v>
-      </c>
-      <c r="F64" s="44">
-        <v>6</v>
-      </c>
-      <c r="G64" s="44">
-        <v>2</v>
-      </c>
-      <c r="H64" s="44">
-        <v>3</v>
-      </c>
-      <c r="I64" s="44">
-        <v>1</v>
-      </c>
-      <c r="J64" s="44">
-        <v>2</v>
-      </c>
-      <c r="K64" s="44">
-        <v>1</v>
-      </c>
-      <c r="L64" s="44">
-        <v>1</v>
-      </c>
-      <c r="M64" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="54"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="51"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
@@ -5440,24 +5690,24 @@
       <c r="AA64" s="19"/>
     </row>
     <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="54"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="51"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -5471,24 +5721,24 @@
       <c r="AA65" s="19"/>
     </row>
     <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="54"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="51"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
@@ -5502,24 +5752,24 @@
       <c r="AA66" s="19"/>
     </row>
     <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="54"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="51"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
@@ -5533,24 +5783,24 @@
       <c r="AA67" s="19"/>
     </row>
     <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="54"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="51"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
@@ -5564,24 +5814,24 @@
       <c r="AA68" s="19"/>
     </row>
     <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="54"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="51"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -5595,24 +5845,24 @@
       <c r="AA69" s="19"/>
     </row>
     <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="54"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="51"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -5626,24 +5876,24 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="54"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="51"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -5657,24 +5907,24 @@
       <c r="AA71" s="19"/>
     </row>
     <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="54"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="51"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -5688,24 +5938,24 @@
       <c r="AA72" s="19"/>
     </row>
     <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="54"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="51"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
@@ -5719,48 +5969,48 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="44">
+      <c r="B74" s="59">
         <v>35</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="59">
+        <v>6</v>
+      </c>
+      <c r="E74" s="59">
+        <v>7</v>
+      </c>
+      <c r="F74" s="59">
+        <v>6</v>
+      </c>
+      <c r="G74" s="59">
+        <v>4</v>
+      </c>
+      <c r="H74" s="59">
+        <v>5</v>
+      </c>
+      <c r="I74" s="59">
+        <v>4</v>
+      </c>
+      <c r="J74" s="59">
+        <v>5</v>
+      </c>
+      <c r="K74" s="59">
+        <v>4</v>
+      </c>
+      <c r="L74" s="59">
+        <v>2</v>
+      </c>
+      <c r="M74" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D74" s="44">
-        <v>6</v>
-      </c>
-      <c r="E74" s="44">
-        <v>7</v>
-      </c>
-      <c r="F74" s="44">
-        <v>6</v>
-      </c>
-      <c r="G74" s="44">
-        <v>4</v>
-      </c>
-      <c r="H74" s="44">
-        <v>5</v>
-      </c>
-      <c r="I74" s="44">
-        <v>4</v>
-      </c>
-      <c r="J74" s="44">
-        <v>5</v>
-      </c>
-      <c r="K74" s="44">
-        <v>4</v>
-      </c>
-      <c r="L74" s="44">
-        <v>2</v>
-      </c>
-      <c r="M74" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="54"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="51"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
@@ -5774,24 +6024,24 @@
       <c r="AA74" s="19"/>
     </row>
     <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="54"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="51"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
@@ -5805,24 +6055,24 @@
       <c r="AA75" s="19"/>
     </row>
     <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="54"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="51"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="19"/>
@@ -5836,24 +6086,24 @@
       <c r="AA76" s="19"/>
     </row>
     <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="54"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="51"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -5867,24 +6117,24 @@
       <c r="AA77" s="19"/>
     </row>
     <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="54"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="51"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -5898,24 +6148,24 @@
       <c r="AA78" s="19"/>
     </row>
     <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="54"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="51"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
@@ -5929,48 +6179,48 @@
       <c r="AA79" s="19"/>
     </row>
     <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="C80" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="D80" s="59">
+        <v>5</v>
+      </c>
+      <c r="E80" s="59">
+        <v>4</v>
+      </c>
+      <c r="F80" s="59">
+        <v>5</v>
+      </c>
+      <c r="G80" s="59">
+        <v>4</v>
+      </c>
+      <c r="H80" s="59">
+        <v>5</v>
+      </c>
+      <c r="I80" s="59">
+        <v>3</v>
+      </c>
+      <c r="J80" s="59">
+        <v>5</v>
+      </c>
+      <c r="K80" s="59">
+        <v>4</v>
+      </c>
+      <c r="L80" s="59">
+        <v>2</v>
+      </c>
+      <c r="M80" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="44">
-        <v>5</v>
-      </c>
-      <c r="E80" s="44">
-        <v>4</v>
-      </c>
-      <c r="F80" s="44">
-        <v>5</v>
-      </c>
-      <c r="G80" s="44">
-        <v>4</v>
-      </c>
-      <c r="H80" s="44">
-        <v>5</v>
-      </c>
-      <c r="I80" s="44">
-        <v>3</v>
-      </c>
-      <c r="J80" s="44">
-        <v>5</v>
-      </c>
-      <c r="K80" s="44">
-        <v>4</v>
-      </c>
-      <c r="L80" s="44">
-        <v>2</v>
-      </c>
-      <c r="M80" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="54"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="51"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
@@ -5984,24 +6234,24 @@
       <c r="AA80" s="19"/>
     </row>
     <row r="81" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="54"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="51"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -6015,24 +6265,24 @@
       <c r="AA81" s="19"/>
     </row>
     <row r="82" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-      <c r="P82" s="54"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="N82" s="50"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="51"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -6046,24 +6296,24 @@
       <c r="AA82" s="19"/>
     </row>
     <row r="83" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
-      <c r="P83" s="54"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="51"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -6077,24 +6327,24 @@
       <c r="AA83" s="19"/>
     </row>
     <row r="84" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="54"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="51"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19"/>
@@ -6108,10 +6358,10 @@
       <c r="AA84" s="19"/>
     </row>
     <row r="85" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85" s="31">
         <v>3</v>
@@ -6140,12 +6390,12 @@
       <c r="L85" s="31">
         <v>1</v>
       </c>
-      <c r="M85" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="54"/>
+      <c r="M85" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="51"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -6159,48 +6409,48 @@
       <c r="AA85" s="19"/>
     </row>
     <row r="86" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44" t="s">
+      <c r="A86" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="C86" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="D86" s="59">
+        <v>4</v>
+      </c>
+      <c r="E86" s="59">
+        <v>3</v>
+      </c>
+      <c r="F86" s="59">
+        <v>0</v>
+      </c>
+      <c r="G86" s="59">
+        <v>4</v>
+      </c>
+      <c r="H86" s="59">
+        <v>6</v>
+      </c>
+      <c r="I86" s="59">
+        <v>0</v>
+      </c>
+      <c r="J86" s="59">
+        <v>3</v>
+      </c>
+      <c r="K86" s="59">
+        <v>5</v>
+      </c>
+      <c r="L86" s="59">
+        <v>6</v>
+      </c>
+      <c r="M86" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="44">
-        <v>4</v>
-      </c>
-      <c r="E86" s="44">
-        <v>3</v>
-      </c>
-      <c r="F86" s="44">
-        <v>0</v>
-      </c>
-      <c r="G86" s="44">
-        <v>4</v>
-      </c>
-      <c r="H86" s="44">
-        <v>6</v>
-      </c>
-      <c r="I86" s="44">
-        <v>0</v>
-      </c>
-      <c r="J86" s="44">
-        <v>3</v>
-      </c>
-      <c r="K86" s="44">
-        <v>5</v>
-      </c>
-      <c r="L86" s="44">
-        <v>6</v>
-      </c>
-      <c r="M86" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="54"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="51"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
@@ -6214,24 +6464,24 @@
       <c r="AA86" s="19"/>
     </row>
     <row r="87" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="54"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="51"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
@@ -6245,24 +6495,24 @@
       <c r="AA87" s="19"/>
     </row>
     <row r="88" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="54"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="51"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -6276,24 +6526,24 @@
       <c r="AA88" s="19"/>
     </row>
     <row r="89" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="54"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="N89" s="50"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="51"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
@@ -32205,114 +32455,62 @@
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="K16:K22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="K23:K31"/>
-    <mergeCell ref="L23:L31"/>
-    <mergeCell ref="M12:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="G23:G31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C33:C41"/>
-    <mergeCell ref="H33:H41"/>
-    <mergeCell ref="I33:I41"/>
-    <mergeCell ref="H23:H31"/>
-    <mergeCell ref="I23:I31"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="J33:J41"/>
+    <mergeCell ref="K33:K41"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="K80:K84"/>
+    <mergeCell ref="L80:L84"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="K74:K79"/>
+    <mergeCell ref="L74:L79"/>
+    <mergeCell ref="H64:H73"/>
+    <mergeCell ref="I64:I73"/>
+    <mergeCell ref="J64:J73"/>
+    <mergeCell ref="K64:K73"/>
+    <mergeCell ref="L64:L73"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="I80:I84"/>
     <mergeCell ref="A63:A73"/>
     <mergeCell ref="B63:B73"/>
     <mergeCell ref="C64:C73"/>
@@ -32337,66 +32535,118 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="E74:E79"/>
-    <mergeCell ref="F74:F79"/>
-    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="G23:G31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C33:C41"/>
+    <mergeCell ref="H33:H41"/>
+    <mergeCell ref="I33:I41"/>
+    <mergeCell ref="H23:H31"/>
+    <mergeCell ref="I23:I31"/>
     <mergeCell ref="D33:D41"/>
     <mergeCell ref="E33:E41"/>
     <mergeCell ref="F33:F41"/>
     <mergeCell ref="G33:G41"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="I80:I84"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="K80:K84"/>
-    <mergeCell ref="L80:L84"/>
-    <mergeCell ref="J74:J79"/>
-    <mergeCell ref="K74:K79"/>
-    <mergeCell ref="L74:L79"/>
-    <mergeCell ref="H64:H73"/>
-    <mergeCell ref="I64:I73"/>
-    <mergeCell ref="J64:J73"/>
-    <mergeCell ref="K64:K73"/>
-    <mergeCell ref="L64:L73"/>
-    <mergeCell ref="J33:J41"/>
-    <mergeCell ref="K33:K41"/>
-    <mergeCell ref="L33:L41"/>
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="K23:K31"/>
+    <mergeCell ref="L23:L31"/>
+    <mergeCell ref="M12:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="K16:K22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -32407,2108 +32657,2886 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3EED42-5CDC-45EC-B048-F28702DC1FD1}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="37"/>
-    <col min="2" max="2" width="10.19921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="33"/>
-    <col min="5" max="5" width="34" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.09765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.19921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69921875" style="33"/>
+    <col min="1" max="1" width="8.69921875" style="35"/>
+    <col min="2" max="2" width="10.19921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="32"/>
+    <col min="5" max="5" width="34" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.09765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.19921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.69921875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="H1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="96">
+        <v>2</v>
+      </c>
+      <c r="G2" s="96">
+        <v>5</v>
+      </c>
+      <c r="H2" s="96">
+        <v>0</v>
+      </c>
+      <c r="I2" s="96">
+        <v>4</v>
+      </c>
+      <c r="J2" s="96">
+        <v>6</v>
+      </c>
+      <c r="K2" s="96">
+        <v>0</v>
+      </c>
+      <c r="L2" s="96">
         <v>3</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="M2" s="98">
+        <v>4</v>
+      </c>
+      <c r="N2" s="96">
+        <v>4</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="96">
+        <v>4</v>
+      </c>
+      <c r="G3" s="96">
+        <v>6</v>
+      </c>
+      <c r="H3" s="96">
+        <v>0</v>
+      </c>
+      <c r="I3" s="96">
+        <v>5</v>
+      </c>
+      <c r="J3" s="96">
+        <v>7</v>
+      </c>
+      <c r="K3" s="96">
+        <v>0</v>
+      </c>
+      <c r="L3" s="96">
+        <v>7</v>
+      </c>
+      <c r="M3" s="98">
+        <v>4</v>
+      </c>
+      <c r="N3" s="96">
+        <v>1</v>
+      </c>
+      <c r="O3" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="96">
+        <v>3</v>
+      </c>
+      <c r="G4" s="96">
+        <v>6</v>
+      </c>
+      <c r="H4" s="96">
+        <v>0</v>
+      </c>
+      <c r="I4" s="96">
+        <v>3</v>
+      </c>
+      <c r="J4" s="96">
+        <v>7</v>
+      </c>
+      <c r="K4" s="96">
+        <v>0</v>
+      </c>
+      <c r="L4" s="96">
+        <v>3</v>
+      </c>
+      <c r="M4" s="98">
+        <v>2</v>
+      </c>
+      <c r="N4" s="96">
+        <v>1</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="96">
+        <v>6</v>
+      </c>
+      <c r="G5" s="96">
+        <v>7</v>
+      </c>
+      <c r="H5" s="96">
+        <v>6</v>
+      </c>
+      <c r="I5" s="96">
+        <v>2</v>
+      </c>
+      <c r="J5" s="96">
+        <v>7</v>
+      </c>
+      <c r="K5" s="96">
+        <v>1</v>
+      </c>
+      <c r="L5" s="96">
+        <v>2</v>
+      </c>
+      <c r="M5" s="98">
+        <v>2</v>
+      </c>
+      <c r="N5" s="96">
+        <v>1</v>
+      </c>
+      <c r="O5" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="96">
+        <v>6</v>
+      </c>
+      <c r="G6" s="96">
+        <v>7</v>
+      </c>
+      <c r="H6" s="96">
+        <v>6</v>
+      </c>
+      <c r="I6" s="96">
+        <v>2</v>
+      </c>
+      <c r="J6" s="96">
+        <v>7</v>
+      </c>
+      <c r="K6" s="96">
+        <v>1</v>
+      </c>
+      <c r="L6" s="96">
+        <v>2</v>
+      </c>
+      <c r="M6" s="98">
+        <v>2</v>
+      </c>
+      <c r="N6" s="96">
+        <v>1</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="96">
+        <v>6</v>
+      </c>
+      <c r="G7" s="96">
+        <v>6</v>
+      </c>
+      <c r="H7" s="96">
+        <v>0</v>
+      </c>
+      <c r="I7" s="96">
+        <v>5</v>
+      </c>
+      <c r="J7" s="96">
+        <v>6</v>
+      </c>
+      <c r="K7" s="96">
+        <v>0</v>
+      </c>
+      <c r="L7" s="96">
+        <v>3</v>
+      </c>
+      <c r="M7" s="98">
+        <v>4</v>
+      </c>
+      <c r="N7" s="96">
+        <v>2</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="96">
+        <v>4</v>
+      </c>
+      <c r="G8" s="96">
+        <v>4</v>
+      </c>
+      <c r="H8" s="96">
+        <v>0</v>
+      </c>
+      <c r="I8" s="96">
+        <v>6</v>
+      </c>
+      <c r="J8" s="96">
+        <v>5</v>
+      </c>
+      <c r="K8" s="96">
+        <v>0</v>
+      </c>
+      <c r="L8" s="96">
+        <v>3</v>
+      </c>
+      <c r="M8" s="98">
+        <v>4</v>
+      </c>
+      <c r="N8" s="96">
+        <v>3</v>
+      </c>
+      <c r="O8" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="96">
+        <v>6</v>
+      </c>
+      <c r="G9" s="96">
+        <v>3</v>
+      </c>
+      <c r="H9" s="96">
+        <v>7</v>
+      </c>
+      <c r="I9" s="96">
+        <v>3</v>
+      </c>
+      <c r="J9" s="96">
+        <v>3</v>
+      </c>
+      <c r="K9" s="96">
+        <v>1</v>
+      </c>
+      <c r="L9" s="96">
+        <v>1</v>
+      </c>
+      <c r="M9" s="98">
+        <v>1</v>
+      </c>
+      <c r="N9" s="96">
+        <v>1</v>
+      </c>
+      <c r="O9" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="96">
+        <v>6</v>
+      </c>
+      <c r="G10" s="96">
+        <v>3</v>
+      </c>
+      <c r="H10" s="96">
+        <v>6</v>
+      </c>
+      <c r="I10" s="96">
+        <v>2</v>
+      </c>
+      <c r="J10" s="96">
+        <v>6</v>
+      </c>
+      <c r="K10" s="96">
+        <v>1</v>
+      </c>
+      <c r="L10" s="96">
+        <v>4</v>
+      </c>
+      <c r="M10" s="98">
+        <v>1</v>
+      </c>
+      <c r="N10" s="96">
+        <v>2</v>
+      </c>
+      <c r="O10" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="96">
+        <v>6</v>
+      </c>
+      <c r="G11" s="96">
+        <v>4</v>
+      </c>
+      <c r="H11" s="96">
+        <v>6</v>
+      </c>
+      <c r="I11" s="96">
+        <v>2</v>
+      </c>
+      <c r="J11" s="96">
+        <v>3</v>
+      </c>
+      <c r="K11" s="96">
+        <v>1</v>
+      </c>
+      <c r="L11" s="96">
+        <v>2</v>
+      </c>
+      <c r="M11" s="98">
+        <v>1</v>
+      </c>
+      <c r="N11" s="96">
+        <v>1</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="81">
+        <v>35</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="96">
+        <v>6</v>
+      </c>
+      <c r="G12" s="96">
+        <v>7</v>
+      </c>
+      <c r="H12" s="96">
+        <v>6</v>
+      </c>
+      <c r="I12" s="96">
+        <v>4</v>
+      </c>
+      <c r="J12" s="96">
+        <v>5</v>
+      </c>
+      <c r="K12" s="96">
+        <v>4</v>
+      </c>
+      <c r="L12" s="96">
+        <v>5</v>
+      </c>
+      <c r="M12" s="98">
+        <v>4</v>
+      </c>
+      <c r="N12" s="96">
+        <v>2</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="81">
+        <v>82</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="96">
+        <v>5</v>
+      </c>
+      <c r="G13" s="96">
+        <v>4</v>
+      </c>
+      <c r="H13" s="96">
+        <v>5</v>
+      </c>
+      <c r="I13" s="96">
+        <v>4</v>
+      </c>
+      <c r="J13" s="96">
+        <v>5</v>
+      </c>
+      <c r="K13" s="96">
+        <v>3</v>
+      </c>
+      <c r="L13" s="96">
+        <v>5</v>
+      </c>
+      <c r="M13" s="98">
+        <v>4</v>
+      </c>
+      <c r="N13" s="96">
+        <v>2</v>
+      </c>
+      <c r="O13" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="81">
+        <v>82</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="96">
+        <v>3</v>
+      </c>
+      <c r="G14" s="96">
+        <v>3</v>
+      </c>
+      <c r="H14" s="96">
+        <v>1</v>
+      </c>
+      <c r="I14" s="96">
+        <v>2</v>
+      </c>
+      <c r="J14" s="96">
+        <v>2</v>
+      </c>
+      <c r="K14" s="96">
+        <v>3</v>
+      </c>
+      <c r="L14" s="96">
+        <v>2</v>
+      </c>
+      <c r="M14" s="98">
+        <v>2</v>
+      </c>
+      <c r="N14" s="96">
+        <v>1</v>
+      </c>
+      <c r="O14" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="81">
+        <v>13</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="96">
+        <v>4</v>
+      </c>
+      <c r="G15" s="96">
+        <v>3</v>
+      </c>
+      <c r="H15" s="96">
+        <v>0</v>
+      </c>
+      <c r="I15" s="96">
+        <v>4</v>
+      </c>
+      <c r="J15" s="96">
+        <v>6</v>
+      </c>
+      <c r="K15" s="96">
+        <v>0</v>
+      </c>
+      <c r="L15" s="96">
+        <v>3</v>
+      </c>
+      <c r="M15" s="98">
+        <v>5</v>
+      </c>
+      <c r="N15" s="96">
+        <v>6</v>
+      </c>
+      <c r="O15" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="C16" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="96">
+        <v>7</v>
+      </c>
+      <c r="G16" s="96">
+        <v>7</v>
+      </c>
+      <c r="H16" s="96">
+        <v>5</v>
+      </c>
+      <c r="I16" s="96">
+        <v>7</v>
+      </c>
+      <c r="J16" s="96">
+        <v>4</v>
+      </c>
+      <c r="K16" s="96">
+        <v>0</v>
+      </c>
+      <c r="L16" s="96">
+        <v>3</v>
+      </c>
+      <c r="M16" s="96">
+        <v>6</v>
+      </c>
+      <c r="N16" s="96">
+        <v>2</v>
+      </c>
+      <c r="O16" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="96">
+        <v>7</v>
+      </c>
+      <c r="G17" s="96">
+        <v>7</v>
+      </c>
+      <c r="H17" s="96">
+        <v>0</v>
+      </c>
+      <c r="I17" s="96">
+        <v>7</v>
+      </c>
+      <c r="J17" s="96">
+        <v>4</v>
+      </c>
+      <c r="K17" s="96">
+        <v>0</v>
+      </c>
+      <c r="L17" s="96">
+        <v>3</v>
+      </c>
+      <c r="M17" s="96">
+        <v>6</v>
+      </c>
+      <c r="N17" s="96">
+        <v>2</v>
+      </c>
+      <c r="O17" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="96">
+        <v>7</v>
+      </c>
+      <c r="G18" s="96">
+        <v>7</v>
+      </c>
+      <c r="H18" s="96">
+        <v>7</v>
+      </c>
+      <c r="I18" s="96">
+        <v>2</v>
+      </c>
+      <c r="J18" s="96">
+        <v>5</v>
+      </c>
+      <c r="K18" s="96">
+        <v>1</v>
+      </c>
+      <c r="L18" s="96">
+        <v>2</v>
+      </c>
+      <c r="M18" s="96">
+        <v>1</v>
+      </c>
+      <c r="N18" s="96">
+        <v>1</v>
+      </c>
+      <c r="O18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="96">
+        <v>7</v>
+      </c>
+      <c r="G19" s="96">
+        <v>4</v>
+      </c>
+      <c r="H19" s="96">
+        <v>7</v>
+      </c>
+      <c r="I19" s="96">
+        <v>2</v>
+      </c>
+      <c r="J19" s="96">
+        <v>4</v>
+      </c>
+      <c r="K19" s="96">
+        <v>1</v>
+      </c>
+      <c r="L19" s="96">
+        <v>2</v>
+      </c>
+      <c r="M19" s="96">
+        <v>1</v>
+      </c>
+      <c r="N19" s="96">
+        <v>1</v>
+      </c>
+      <c r="O19" s="95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="81">
+        <v>890</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="96">
+        <v>4</v>
+      </c>
+      <c r="G20" s="96">
+        <v>5</v>
+      </c>
+      <c r="H20" s="96">
+        <v>7</v>
+      </c>
+      <c r="I20" s="96">
+        <v>5</v>
+      </c>
+      <c r="J20" s="96">
+        <v>5</v>
+      </c>
+      <c r="K20" s="96">
+        <v>2</v>
+      </c>
+      <c r="L20" s="96">
+        <v>4</v>
+      </c>
+      <c r="M20" s="96">
+        <v>4</v>
+      </c>
+      <c r="N20" s="96">
+        <v>2</v>
+      </c>
+      <c r="O20" s="95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="81">
+        <v>101</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="96">
+        <v>6</v>
+      </c>
+      <c r="G21" s="96">
+        <v>4</v>
+      </c>
+      <c r="H21" s="96">
+        <v>5</v>
+      </c>
+      <c r="I21" s="96">
+        <v>4</v>
+      </c>
+      <c r="J21" s="96">
+        <v>5</v>
+      </c>
+      <c r="K21" s="96">
+        <v>2</v>
+      </c>
+      <c r="L21" s="96">
+        <v>4</v>
+      </c>
+      <c r="M21" s="96">
+        <v>3</v>
+      </c>
+      <c r="N21" s="96">
+        <v>2</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="81">
+        <v>101</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="96">
+        <v>6</v>
+      </c>
+      <c r="G22" s="96">
+        <v>5</v>
+      </c>
+      <c r="H22" s="96">
+        <v>6</v>
+      </c>
+      <c r="I22" s="96">
+        <v>4</v>
+      </c>
+      <c r="J22" s="96">
+        <v>5</v>
+      </c>
+      <c r="K22" s="96">
+        <v>2</v>
+      </c>
+      <c r="L22" s="96">
+        <v>5</v>
+      </c>
+      <c r="M22" s="96">
+        <v>3</v>
+      </c>
+      <c r="N22" s="96">
+        <v>2</v>
+      </c>
+      <c r="O22" s="95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="96">
+        <v>2</v>
+      </c>
+      <c r="G23" s="96">
+        <v>1</v>
+      </c>
+      <c r="H23" s="96">
+        <v>0</v>
+      </c>
+      <c r="I23" s="96">
+        <v>3</v>
+      </c>
+      <c r="J23" s="96">
+        <v>4</v>
+      </c>
+      <c r="K23" s="96">
+        <v>0</v>
+      </c>
+      <c r="L23" s="96">
+        <v>1</v>
+      </c>
+      <c r="M23" s="96">
+        <v>3</v>
+      </c>
+      <c r="N23" s="96">
+        <v>3</v>
+      </c>
+      <c r="O23" s="95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" s="75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="C24" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="96">
+        <v>5</v>
+      </c>
+      <c r="G24" s="96">
+        <v>4</v>
+      </c>
+      <c r="H24" s="96">
+        <v>4</v>
+      </c>
+      <c r="I24" s="96">
+        <v>3</v>
+      </c>
+      <c r="J24" s="96">
+        <v>4</v>
+      </c>
+      <c r="K24" s="96">
+        <v>1</v>
+      </c>
+      <c r="L24" s="96">
+        <v>1</v>
+      </c>
+      <c r="M24" s="96">
+        <v>1</v>
+      </c>
+      <c r="N24" s="96">
+        <v>1</v>
+      </c>
+      <c r="O24" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="96">
+        <v>7</v>
+      </c>
+      <c r="G25" s="96">
+        <v>7</v>
+      </c>
+      <c r="H25" s="96">
+        <v>4</v>
+      </c>
+      <c r="I25" s="96">
+        <v>3</v>
+      </c>
+      <c r="J25" s="96">
+        <v>4</v>
+      </c>
+      <c r="K25" s="96">
+        <v>3</v>
+      </c>
+      <c r="L25" s="96">
+        <v>1</v>
+      </c>
+      <c r="M25" s="96">
+        <v>4</v>
+      </c>
+      <c r="N25" s="96">
+        <v>2</v>
+      </c>
+      <c r="O25" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="96">
+        <v>5</v>
+      </c>
+      <c r="G26" s="96">
+        <v>5</v>
+      </c>
+      <c r="H26" s="96">
+        <v>4</v>
+      </c>
+      <c r="I26" s="96">
+        <v>2</v>
+      </c>
+      <c r="J26" s="96">
+        <v>3</v>
+      </c>
+      <c r="K26" s="96">
+        <v>1</v>
+      </c>
+      <c r="L26" s="96">
+        <v>1</v>
+      </c>
+      <c r="M26" s="96">
+        <v>2</v>
+      </c>
+      <c r="N26" s="96">
+        <v>1</v>
+      </c>
+      <c r="O26" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="96">
+        <v>6</v>
+      </c>
+      <c r="G27" s="96">
+        <v>6</v>
+      </c>
+      <c r="H27" s="96">
+        <v>4</v>
+      </c>
+      <c r="I27" s="96">
+        <v>2</v>
+      </c>
+      <c r="J27" s="96">
+        <v>5</v>
+      </c>
+      <c r="K27" s="96">
+        <v>3</v>
+      </c>
+      <c r="L27" s="96">
+        <v>1</v>
+      </c>
+      <c r="M27" s="96">
+        <v>2</v>
+      </c>
+      <c r="N27" s="96">
+        <v>2</v>
+      </c>
+      <c r="O27" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B28" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="96">
+        <v>5</v>
+      </c>
+      <c r="G28" s="96">
+        <v>5</v>
+      </c>
+      <c r="H28" s="96">
+        <v>0</v>
+      </c>
+      <c r="I28" s="96">
+        <v>3</v>
+      </c>
+      <c r="J28" s="96">
+        <v>5</v>
+      </c>
+      <c r="K28" s="96">
+        <v>0</v>
+      </c>
+      <c r="L28" s="96">
+        <v>2</v>
+      </c>
+      <c r="M28" s="96">
+        <v>1</v>
+      </c>
+      <c r="N28" s="96">
+        <v>1</v>
+      </c>
+      <c r="O28" s="95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="C29" s="81">
+        <v>74</v>
+      </c>
+      <c r="D29" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="E29" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="96">
+        <v>6</v>
+      </c>
+      <c r="G29" s="96">
+        <v>5</v>
+      </c>
+      <c r="H29" s="96">
+        <v>0</v>
+      </c>
+      <c r="I29" s="96">
+        <v>4</v>
+      </c>
+      <c r="J29" s="96">
+        <v>6</v>
+      </c>
+      <c r="K29" s="96">
+        <v>0</v>
+      </c>
+      <c r="L29" s="96">
+        <v>4</v>
+      </c>
+      <c r="M29" s="96">
+        <v>4</v>
+      </c>
+      <c r="N29" s="96">
+        <v>4</v>
+      </c>
+      <c r="O29" s="95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="96">
+        <v>6</v>
+      </c>
+      <c r="G30" s="96">
+        <v>4</v>
+      </c>
+      <c r="H30" s="96">
+        <v>0</v>
+      </c>
+      <c r="I30" s="96">
+        <v>6</v>
+      </c>
+      <c r="J30" s="96">
+        <v>4</v>
+      </c>
+      <c r="K30" s="96">
+        <v>0</v>
+      </c>
+      <c r="L30" s="96">
+        <v>4</v>
+      </c>
+      <c r="M30" s="96">
+        <v>7</v>
+      </c>
+      <c r="N30" s="96">
+        <v>5</v>
+      </c>
+      <c r="O30" s="95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="96">
+        <v>4</v>
+      </c>
+      <c r="G31" s="96">
+        <v>5</v>
+      </c>
+      <c r="H31" s="96">
+        <v>7</v>
+      </c>
+      <c r="I31" s="96">
+        <v>4</v>
+      </c>
+      <c r="J31" s="96">
+        <v>4</v>
+      </c>
+      <c r="K31" s="96">
+        <v>3</v>
+      </c>
+      <c r="L31" s="96">
+        <v>4</v>
+      </c>
+      <c r="M31" s="96">
         <v>2</v>
       </c>
-      <c r="G2" s="35">
+      <c r="N31" s="96">
+        <v>4</v>
+      </c>
+      <c r="O31" s="95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="96">
+        <v>4</v>
+      </c>
+      <c r="G32" s="96">
         <v>5</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H32" s="96">
+        <v>5</v>
+      </c>
+      <c r="I32" s="96">
+        <v>4</v>
+      </c>
+      <c r="J32" s="96">
+        <v>4</v>
+      </c>
+      <c r="K32" s="96">
+        <v>3</v>
+      </c>
+      <c r="L32" s="96">
+        <v>4</v>
+      </c>
+      <c r="M32" s="96">
+        <v>2</v>
+      </c>
+      <c r="N32" s="96">
+        <v>4</v>
+      </c>
+      <c r="O32" s="95" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="96">
+        <v>5</v>
+      </c>
+      <c r="G33" s="96">
+        <v>4</v>
+      </c>
+      <c r="H33" s="96">
+        <v>4</v>
+      </c>
+      <c r="I33" s="96">
+        <v>4</v>
+      </c>
+      <c r="J33" s="96">
+        <v>3</v>
+      </c>
+      <c r="K33" s="96">
+        <v>2</v>
+      </c>
+      <c r="L33" s="96">
+        <v>5</v>
+      </c>
+      <c r="M33" s="96">
+        <v>3</v>
+      </c>
+      <c r="N33" s="96">
+        <v>2</v>
+      </c>
+      <c r="O33" s="95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="96">
+        <v>5</v>
+      </c>
+      <c r="G34" s="96">
+        <v>5</v>
+      </c>
+      <c r="H34" s="96">
+        <v>6</v>
+      </c>
+      <c r="I34" s="96">
+        <v>2</v>
+      </c>
+      <c r="J34" s="96">
+        <v>2</v>
+      </c>
+      <c r="K34" s="96">
+        <v>2</v>
+      </c>
+      <c r="L34" s="96">
+        <v>4</v>
+      </c>
+      <c r="M34" s="96">
+        <v>2</v>
+      </c>
+      <c r="N34" s="96">
+        <v>2</v>
+      </c>
+      <c r="O34" s="95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="96">
+        <v>5</v>
+      </c>
+      <c r="G35" s="96">
+        <v>5</v>
+      </c>
+      <c r="H35" s="96">
+        <v>5</v>
+      </c>
+      <c r="I35" s="96">
+        <v>5</v>
+      </c>
+      <c r="J35" s="96">
+        <v>4</v>
+      </c>
+      <c r="K35" s="96">
         <v>0</v>
       </c>
-      <c r="I2" s="35">
+      <c r="L35" s="96">
+        <v>5</v>
+      </c>
+      <c r="M35" s="96">
         <v>4</v>
       </c>
-      <c r="J2" s="35">
+      <c r="N35" s="96">
+        <v>4</v>
+      </c>
+      <c r="O35" s="95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="96">
+        <v>5</v>
+      </c>
+      <c r="G36" s="96">
+        <v>4</v>
+      </c>
+      <c r="H36" s="96">
+        <v>0</v>
+      </c>
+      <c r="I36" s="96">
+        <v>5</v>
+      </c>
+      <c r="J36" s="96">
+        <v>4</v>
+      </c>
+      <c r="K36" s="96">
+        <v>0</v>
+      </c>
+      <c r="L36" s="96">
+        <v>4</v>
+      </c>
+      <c r="M36" s="96">
+        <v>4</v>
+      </c>
+      <c r="N36" s="96">
+        <v>4</v>
+      </c>
+      <c r="O36" s="95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="97">
         <v>6</v>
       </c>
-      <c r="K2" s="32">
-        <v>0</v>
-      </c>
-      <c r="L2" s="35">
+      <c r="G37" s="97">
+        <v>5</v>
+      </c>
+      <c r="H37" s="97">
         <v>3</v>
       </c>
-      <c r="M2" s="36">
+      <c r="I37" s="97">
         <v>4</v>
       </c>
-      <c r="N2" s="32">
+      <c r="J37" s="97">
         <v>4</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="K37" s="97">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="L37" s="97">
+        <v>4</v>
+      </c>
+      <c r="M37" s="97">
+        <v>5</v>
+      </c>
+      <c r="N37" s="97">
+        <v>4</v>
+      </c>
+      <c r="O37" s="95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="96">
         <v>6</v>
       </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="G38" s="96">
+        <v>6</v>
+      </c>
+      <c r="H38" s="96">
+        <v>6</v>
+      </c>
+      <c r="I38" s="96">
         <v>5</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J38" s="96">
+        <v>6</v>
+      </c>
+      <c r="K38" s="96">
+        <v>4</v>
+      </c>
+      <c r="L38" s="96">
         <v>7</v>
       </c>
-      <c r="K3" s="32">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
+      <c r="M38" s="96">
+        <v>6</v>
+      </c>
+      <c r="N38" s="96">
+        <v>6</v>
+      </c>
+      <c r="O38" s="95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="96">
+        <v>6</v>
+      </c>
+      <c r="G39" s="96">
+        <v>6</v>
+      </c>
+      <c r="H39" s="96">
         <v>7</v>
       </c>
-      <c r="M3" s="36">
+      <c r="I39" s="96">
+        <v>7</v>
+      </c>
+      <c r="J39" s="96">
+        <v>7</v>
+      </c>
+      <c r="K39" s="96">
+        <v>6</v>
+      </c>
+      <c r="L39" s="96">
         <v>4</v>
       </c>
-      <c r="N3" s="32">
-        <v>1</v>
-      </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="35">
+      <c r="M39" s="96">
+        <v>6</v>
+      </c>
+      <c r="N39" s="96">
         <v>3</v>
       </c>
-      <c r="G4" s="35">
-        <v>6</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>3</v>
-      </c>
-      <c r="J4" s="35">
-        <v>7</v>
-      </c>
-      <c r="K4" s="32">
-        <v>0</v>
-      </c>
-      <c r="L4" s="35">
-        <v>3</v>
-      </c>
-      <c r="M4" s="36">
-        <v>2</v>
-      </c>
-      <c r="N4" s="32">
-        <v>1</v>
-      </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="35">
-        <v>6</v>
-      </c>
-      <c r="G5" s="35">
-        <v>7</v>
-      </c>
-      <c r="H5" s="35">
-        <v>6</v>
-      </c>
-      <c r="I5" s="35">
-        <v>2</v>
-      </c>
-      <c r="J5" s="35">
-        <v>7</v>
-      </c>
-      <c r="K5" s="32">
-        <v>1</v>
-      </c>
-      <c r="L5" s="35">
-        <v>2</v>
-      </c>
-      <c r="M5" s="36">
-        <v>2</v>
-      </c>
-      <c r="N5" s="32">
-        <v>1</v>
-      </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="35">
-        <v>6</v>
-      </c>
-      <c r="G6" s="35">
-        <v>7</v>
-      </c>
-      <c r="H6" s="35">
-        <v>6</v>
-      </c>
-      <c r="I6" s="35">
-        <v>2</v>
-      </c>
-      <c r="J6" s="35">
-        <v>7</v>
-      </c>
-      <c r="K6" s="32">
-        <v>1</v>
-      </c>
-      <c r="L6" s="35">
-        <v>2</v>
-      </c>
-      <c r="M6" s="36">
-        <v>2</v>
-      </c>
-      <c r="N6" s="32">
-        <v>1</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="35">
-        <v>6</v>
-      </c>
-      <c r="G7" s="35">
-        <v>6</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>5</v>
-      </c>
-      <c r="J7" s="35">
-        <v>6</v>
-      </c>
-      <c r="K7" s="32">
-        <v>0</v>
-      </c>
-      <c r="L7" s="35">
-        <v>3</v>
-      </c>
-      <c r="M7" s="36">
-        <v>4</v>
-      </c>
-      <c r="N7" s="32">
-        <v>2</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="35">
-        <v>4</v>
-      </c>
-      <c r="G8" s="35">
-        <v>4</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>6</v>
-      </c>
-      <c r="J8" s="35">
-        <v>5</v>
-      </c>
-      <c r="K8" s="32">
-        <v>0</v>
-      </c>
-      <c r="L8" s="35">
-        <v>3</v>
-      </c>
-      <c r="M8" s="36">
-        <v>4</v>
-      </c>
-      <c r="N8" s="32">
-        <v>3</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="35">
-        <v>6</v>
-      </c>
-      <c r="G9" s="35">
-        <v>3</v>
-      </c>
-      <c r="H9" s="35">
-        <v>7</v>
-      </c>
-      <c r="I9" s="35">
-        <v>3</v>
-      </c>
-      <c r="J9" s="35">
-        <v>3</v>
-      </c>
-      <c r="K9" s="32">
-        <v>1</v>
-      </c>
-      <c r="L9" s="35">
-        <v>1</v>
-      </c>
-      <c r="M9" s="36">
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
-        <v>1</v>
-      </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="35">
-        <v>6</v>
-      </c>
-      <c r="G10" s="35">
-        <v>3</v>
-      </c>
-      <c r="H10" s="35">
-        <v>6</v>
-      </c>
-      <c r="I10" s="35">
-        <v>2</v>
-      </c>
-      <c r="J10" s="35">
-        <v>6</v>
-      </c>
-      <c r="K10" s="32">
-        <v>1</v>
-      </c>
-      <c r="L10" s="35">
-        <v>4</v>
-      </c>
-      <c r="M10" s="36">
-        <v>1</v>
-      </c>
-      <c r="N10" s="32">
-        <v>2</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="35">
-        <v>6</v>
-      </c>
-      <c r="G11" s="35">
-        <v>4</v>
-      </c>
-      <c r="H11" s="35">
-        <v>6</v>
-      </c>
-      <c r="I11" s="35">
-        <v>2</v>
-      </c>
-      <c r="J11" s="35">
-        <v>3</v>
-      </c>
-      <c r="K11" s="32">
-        <v>1</v>
-      </c>
-      <c r="L11" s="35">
-        <v>2</v>
-      </c>
-      <c r="M11" s="36">
-        <v>1</v>
-      </c>
-      <c r="N11" s="32">
-        <v>1</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="36">
-        <v>35</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="35">
-        <v>6</v>
-      </c>
-      <c r="G12" s="35">
-        <v>7</v>
-      </c>
-      <c r="H12" s="35">
-        <v>6</v>
-      </c>
-      <c r="I12" s="35">
-        <v>4</v>
-      </c>
-      <c r="J12" s="35">
-        <v>5</v>
-      </c>
-      <c r="K12" s="32">
-        <v>4</v>
-      </c>
-      <c r="L12" s="35">
-        <v>5</v>
-      </c>
-      <c r="M12" s="36">
-        <v>4</v>
-      </c>
-      <c r="N12" s="32">
-        <v>2</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="36">
-        <v>82</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="35">
-        <v>5</v>
-      </c>
-      <c r="G13" s="35">
-        <v>4</v>
-      </c>
-      <c r="H13" s="35">
-        <v>5</v>
-      </c>
-      <c r="I13" s="35">
-        <v>4</v>
-      </c>
-      <c r="J13" s="35">
-        <v>5</v>
-      </c>
-      <c r="K13" s="32">
-        <v>3</v>
-      </c>
-      <c r="L13" s="35">
-        <v>5</v>
-      </c>
-      <c r="M13" s="36">
-        <v>4</v>
-      </c>
-      <c r="N13" s="32">
-        <v>2</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="36">
-        <v>82</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="35">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35">
-        <v>3</v>
-      </c>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="35">
-        <v>2</v>
-      </c>
-      <c r="J14" s="35">
-        <v>2</v>
-      </c>
-      <c r="K14" s="32">
-        <v>3</v>
-      </c>
-      <c r="L14" s="35">
-        <v>2</v>
-      </c>
-      <c r="M14" s="36">
-        <v>2</v>
-      </c>
-      <c r="N14" s="32">
-        <v>1</v>
-      </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="36">
-        <v>13</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="35">
-        <v>4</v>
-      </c>
-      <c r="G15" s="35">
-        <v>3</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>4</v>
-      </c>
-      <c r="J15" s="35">
-        <v>6</v>
-      </c>
-      <c r="K15" s="32">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <v>3</v>
-      </c>
-      <c r="M15" s="36">
-        <v>5</v>
-      </c>
-      <c r="N15" s="32">
-        <v>6</v>
-      </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
+      <c r="O39" s="95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data2/תכנון לו''ז  תחקור.xlsx
+++ b/Data2/תכנון לו''ז  תחקור.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\אישי\עבודה\צוות ניתוח נתונים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC9436-587A-4DEF-8D8C-2F0AD3956E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30034E-0CB8-4F8C-B959-D52E7F5FD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="254">
   <si>
     <t>תחקור מפקדים - תכנון לו"ז</t>
   </si>
@@ -803,9 +803,6 @@
     <t>פיקוד דרום</t>
   </si>
   <si>
-    <t>צפון</t>
-  </si>
-  <si>
     <t>פיקוד צפון</t>
   </si>
   <si>
@@ -1411,63 +1408,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1540,6 +1480,63 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1786,26 +1783,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3579,17 +3576,17 @@
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -3610,17 +3607,17 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -3641,17 +3638,17 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
@@ -3672,17 +3669,17 @@
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -3703,17 +3700,17 @@
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
@@ -3734,17 +3731,17 @@
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -3765,17 +3762,17 @@
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -3796,17 +3793,17 @@
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -3827,17 +3824,17 @@
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -3858,17 +3855,17 @@
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -3889,17 +3886,17 @@
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
@@ -3917,28 +3914,28 @@
       <c r="AA11" s="19"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="64" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="65" t="s">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
@@ -3952,13 +3949,13 @@
       <c r="AA12" s="19"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="91" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="22">
@@ -3988,10 +3985,10 @@
       <c r="L13" s="22">
         <v>9</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
@@ -4005,9 +4002,9 @@
       <c r="AA13" s="19"/>
     </row>
     <row r="14" spans="1:27" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="23" t="s">
         <v>88</v>
       </c>
@@ -4035,10 +4032,10 @@
       <c r="L14" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="72"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="81"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -4052,10 +4049,10 @@
       <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="85" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -4088,12 +4085,12 @@
       <c r="L15" s="25">
         <v>4</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
@@ -4107,44 +4104,44 @@
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="85">
         <v>4</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="85">
         <v>6</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="85">
         <v>0</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="85">
         <v>5</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="85">
         <v>7</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="85">
         <v>0</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="85">
         <v>7</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="85">
         <v>4</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="85">
         <v>1</v>
       </c>
-      <c r="M16" s="49" t="s">
+      <c r="M16" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -4158,24 +4155,24 @@
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="49" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -4189,24 +4186,24 @@
       <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="49" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -4220,24 +4217,24 @@
       <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="49" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
@@ -4251,24 +4248,24 @@
       <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="49" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="84"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
@@ -4282,24 +4279,24 @@
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="49" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -4313,24 +4310,24 @@
       <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="49" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -4344,48 +4341,48 @@
       <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="85">
         <v>3</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="85">
         <v>6</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="85">
         <v>0</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="85">
         <v>3</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="85">
         <v>7</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="85">
         <v>0</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="85">
         <v>3</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="85">
         <v>2</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="85">
         <v>1</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
@@ -4399,24 +4396,24 @@
       <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="49" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -4430,24 +4427,24 @@
       <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="49" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
@@ -4461,24 +4458,24 @@
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="49" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
@@ -4492,24 +4489,24 @@
       <c r="AA26" s="20"/>
     </row>
     <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="49" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
@@ -4523,24 +4520,24 @@
       <c r="AA27" s="20"/>
     </row>
     <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="49" t="s">
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
@@ -4554,24 +4551,24 @@
       <c r="AA28" s="20"/>
     </row>
     <row r="29" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="49" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
@@ -4585,24 +4582,24 @@
       <c r="AA29" s="20"/>
     </row>
     <row r="30" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="73" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
@@ -4616,22 +4613,22 @@
       <c r="AA30" s="20"/>
     </row>
     <row r="31" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="72"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -4645,10 +4642,10 @@
       <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="85" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -4681,12 +4678,12 @@
       <c r="L32" s="26">
         <v>1</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="M32" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
@@ -4700,44 +4697,44 @@
       <c r="AA32" s="20"/>
     </row>
     <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="74">
         <v>6</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="74">
         <v>7</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="74">
         <v>6</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="74">
         <v>2</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="74">
         <v>7</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="74">
         <v>1</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="74">
         <v>2</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="74">
         <v>2</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="74">
         <v>1</v>
       </c>
-      <c r="M33" s="49" t="s">
+      <c r="M33" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="51"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="84"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -4751,24 +4748,24 @@
       <c r="AA33" s="19"/>
     </row>
     <row r="34" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="49" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="51"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -4782,24 +4779,24 @@
       <c r="AA34" s="19"/>
     </row>
     <row r="35" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="49" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -4813,24 +4810,24 @@
       <c r="AA35" s="19"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="49" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="51"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -4844,24 +4841,24 @@
       <c r="AA36" s="19"/>
     </row>
     <row r="37" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="49" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="84"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
@@ -4875,24 +4872,24 @@
       <c r="AA37" s="19"/>
     </row>
     <row r="38" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="49" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="51"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="84"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
@@ -4906,24 +4903,24 @@
       <c r="AA38" s="19"/>
     </row>
     <row r="39" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="49" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="51"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="84"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -4937,24 +4934,24 @@
       <c r="AA39" s="19"/>
     </row>
     <row r="40" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="49" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="51"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="84"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -4968,24 +4965,24 @@
       <c r="AA40" s="19"/>
     </row>
     <row r="41" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="49" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="51"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="84"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -4999,12 +4996,12 @@
       <c r="AA41" s="19"/>
     </row>
     <row r="42" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M42" s="49" t="s">
+      <c r="M42" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -5018,12 +5015,12 @@
       <c r="AA42" s="19"/>
     </row>
     <row r="43" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M43" s="49" t="s">
+      <c r="M43" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -5037,12 +5034,12 @@
       <c r="AA43" s="19"/>
     </row>
     <row r="44" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M44" s="49" t="s">
+      <c r="M44" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -5056,12 +5053,12 @@
       <c r="AA44" s="19"/>
     </row>
     <row r="45" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M45" s="49" t="s">
+      <c r="M45" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -5075,12 +5072,12 @@
       <c r="AA45" s="19"/>
     </row>
     <row r="46" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M46" s="49" t="s">
+      <c r="M46" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -5113,12 +5110,12 @@
       <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -5132,12 +5129,12 @@
       <c r="AA48" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M49" s="49" t="s">
+      <c r="M49" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -5151,10 +5148,10 @@
       <c r="AA49" s="19"/>
     </row>
     <row r="50" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -5168,46 +5165,46 @@
       <c r="AA50" s="19"/>
     </row>
     <row r="51" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="74">
         <v>4</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="74">
         <v>4</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="74">
         <v>0</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="74">
         <v>6</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="74">
         <v>5</v>
       </c>
-      <c r="I51" s="59">
+      <c r="I51" s="74">
         <v>0</v>
       </c>
-      <c r="J51" s="59">
+      <c r="J51" s="74">
         <v>3</v>
       </c>
-      <c r="K51" s="59">
+      <c r="K51" s="74">
         <v>4</v>
       </c>
-      <c r="L51" s="59">
+      <c r="L51" s="74">
         <v>3</v>
       </c>
-      <c r="M51" s="49" t="s">
+      <c r="M51" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="51"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="84"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -5221,24 +5218,24 @@
       <c r="AA51" s="19"/>
     </row>
     <row r="52" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="49" t="s">
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="51"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="84"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -5252,24 +5249,24 @@
       <c r="AA52" s="19"/>
     </row>
     <row r="53" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="49" t="s">
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="51"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="84"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -5283,24 +5280,24 @@
       <c r="AA53" s="19"/>
     </row>
     <row r="54" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="49" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="51"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="84"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -5314,18 +5311,18 @@
       <c r="AA54" s="19"/>
     </row>
     <row r="55" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
       <c r="M55" s="24" t="s">
         <v>148</v>
       </c>
@@ -5345,38 +5342,38 @@
       <c r="AA55" s="19"/>
     </row>
     <row r="56" spans="1:27" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="74">
         <v>6</v>
       </c>
-      <c r="E56" s="59">
+      <c r="E56" s="74">
         <v>3</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="74">
         <v>7</v>
       </c>
-      <c r="G56" s="59">
+      <c r="G56" s="74">
         <v>3</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="74">
         <v>3</v>
       </c>
-      <c r="I56" s="59">
+      <c r="I56" s="74">
         <v>1</v>
       </c>
-      <c r="J56" s="59">
+      <c r="J56" s="74">
         <v>1</v>
       </c>
-      <c r="K56" s="59">
+      <c r="K56" s="74">
         <v>1</v>
       </c>
-      <c r="L56" s="59">
+      <c r="L56" s="74">
         <v>1</v>
       </c>
       <c r="M56" s="24" t="s">
@@ -5398,18 +5395,18 @@
       <c r="AA56" s="19"/>
     </row>
     <row r="57" spans="1:27" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
       <c r="M57" s="24" t="s">
         <v>152</v>
       </c>
@@ -5429,18 +5426,18 @@
       <c r="AA57" s="19"/>
     </row>
     <row r="58" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
       <c r="M58" s="24" t="s">
         <v>153</v>
       </c>
@@ -5460,24 +5457,24 @@
       <c r="AA58" s="19"/>
     </row>
     <row r="59" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="49" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="51"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="84"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
@@ -5491,24 +5488,24 @@
       <c r="AA59" s="19"/>
     </row>
     <row r="60" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="49" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="51"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="84"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
@@ -5522,18 +5519,18 @@
       <c r="AA60" s="19"/>
     </row>
     <row r="61" spans="1:27" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
       <c r="M61" s="24" t="s">
         <v>156</v>
       </c>
@@ -5553,18 +5550,18 @@
       <c r="AA61" s="19"/>
     </row>
     <row r="62" spans="1:27" ht="78" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
       <c r="M62" s="29" t="s">
         <v>157</v>
       </c>
@@ -5584,10 +5581,10 @@
       <c r="AA62" s="19"/>
     </row>
     <row r="63" spans="1:27" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="74" t="s">
         <v>158</v>
       </c>
       <c r="C63" s="24" t="s">
@@ -5620,12 +5617,12 @@
       <c r="L63" s="26">
         <v>2</v>
       </c>
-      <c r="M63" s="52" t="s">
+      <c r="M63" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="51"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="84"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
@@ -5639,44 +5636,44 @@
       <c r="AA63" s="19"/>
     </row>
     <row r="64" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="59" t="s">
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="59">
+      <c r="D64" s="74">
         <v>6</v>
       </c>
-      <c r="E64" s="59">
+      <c r="E64" s="74">
         <v>4</v>
       </c>
-      <c r="F64" s="59">
+      <c r="F64" s="74">
         <v>6</v>
       </c>
-      <c r="G64" s="59">
+      <c r="G64" s="74">
         <v>2</v>
       </c>
-      <c r="H64" s="59">
+      <c r="H64" s="74">
         <v>3</v>
       </c>
-      <c r="I64" s="59">
+      <c r="I64" s="74">
         <v>1</v>
       </c>
-      <c r="J64" s="59">
+      <c r="J64" s="74">
         <v>2</v>
       </c>
-      <c r="K64" s="59">
+      <c r="K64" s="74">
         <v>1</v>
       </c>
-      <c r="L64" s="59">
+      <c r="L64" s="74">
         <v>1</v>
       </c>
-      <c r="M64" s="49" t="s">
+      <c r="M64" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="51"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="84"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
@@ -5690,24 +5687,24 @@
       <c r="AA64" s="19"/>
     </row>
     <row r="65" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="49" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="51"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="84"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -5721,24 +5718,24 @@
       <c r="AA65" s="19"/>
     </row>
     <row r="66" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="49" t="s">
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="51"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="84"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
@@ -5752,24 +5749,24 @@
       <c r="AA66" s="19"/>
     </row>
     <row r="67" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="49" t="s">
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="51"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="84"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
@@ -5783,24 +5780,24 @@
       <c r="AA67" s="19"/>
     </row>
     <row r="68" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="49" t="s">
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="51"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="84"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
@@ -5814,24 +5811,24 @@
       <c r="AA68" s="19"/>
     </row>
     <row r="69" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="49" t="s">
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="51"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="84"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -5845,24 +5842,24 @@
       <c r="AA69" s="19"/>
     </row>
     <row r="70" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="49" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="51"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="84"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -5876,24 +5873,24 @@
       <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="49" t="s">
+      <c r="A71" s="75"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="51"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="84"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -5907,24 +5904,24 @@
       <c r="AA71" s="19"/>
     </row>
     <row r="72" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="49" t="s">
+      <c r="A72" s="75"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="51"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="84"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -5938,24 +5935,24 @@
       <c r="AA72" s="19"/>
     </row>
     <row r="73" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="49" t="s">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="51"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="84"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
@@ -5969,48 +5966,48 @@
       <c r="AA73" s="19"/>
     </row>
     <row r="74" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="59">
+      <c r="B74" s="74">
         <v>35</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="59">
+      <c r="D74" s="74">
         <v>6</v>
       </c>
-      <c r="E74" s="59">
+      <c r="E74" s="74">
         <v>7</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="74">
         <v>6</v>
       </c>
-      <c r="G74" s="59">
+      <c r="G74" s="74">
         <v>4</v>
       </c>
-      <c r="H74" s="59">
+      <c r="H74" s="74">
         <v>5</v>
       </c>
-      <c r="I74" s="59">
+      <c r="I74" s="74">
         <v>4</v>
       </c>
-      <c r="J74" s="59">
+      <c r="J74" s="74">
         <v>5</v>
       </c>
-      <c r="K74" s="59">
+      <c r="K74" s="74">
         <v>4</v>
       </c>
-      <c r="L74" s="59">
+      <c r="L74" s="74">
         <v>2</v>
       </c>
-      <c r="M74" s="49" t="s">
+      <c r="M74" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="51"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="83"/>
+      <c r="P74" s="84"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
@@ -6024,24 +6021,24 @@
       <c r="AA74" s="19"/>
     </row>
     <row r="75" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="49" t="s">
+      <c r="A75" s="75"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="51"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="84"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
@@ -6055,24 +6052,24 @@
       <c r="AA75" s="19"/>
     </row>
     <row r="76" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="49" t="s">
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="51"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="84"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="19"/>
@@ -6086,24 +6083,24 @@
       <c r="AA76" s="19"/>
     </row>
     <row r="77" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="49" t="s">
+      <c r="A77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="51"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="84"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -6117,24 +6114,24 @@
       <c r="AA77" s="19"/>
     </row>
     <row r="78" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="49" t="s">
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="51"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="84"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -6148,24 +6145,24 @@
       <c r="AA78" s="19"/>
     </row>
     <row r="79" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="49" t="s">
+      <c r="A79" s="76"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="51"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="84"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
@@ -6179,48 +6176,48 @@
       <c r="AA79" s="19"/>
     </row>
     <row r="80" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="59">
+      <c r="D80" s="74">
         <v>5</v>
       </c>
-      <c r="E80" s="59">
+      <c r="E80" s="74">
         <v>4</v>
       </c>
-      <c r="F80" s="59">
+      <c r="F80" s="74">
         <v>5</v>
       </c>
-      <c r="G80" s="59">
+      <c r="G80" s="74">
         <v>4</v>
       </c>
-      <c r="H80" s="59">
+      <c r="H80" s="74">
         <v>5</v>
       </c>
-      <c r="I80" s="59">
+      <c r="I80" s="74">
         <v>3</v>
       </c>
-      <c r="J80" s="59">
+      <c r="J80" s="74">
         <v>5</v>
       </c>
-      <c r="K80" s="59">
+      <c r="K80" s="74">
         <v>4</v>
       </c>
-      <c r="L80" s="59">
+      <c r="L80" s="74">
         <v>2</v>
       </c>
-      <c r="M80" s="49" t="s">
+      <c r="M80" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="51"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="84"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
@@ -6234,24 +6231,24 @@
       <c r="AA80" s="19"/>
     </row>
     <row r="81" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="49" t="s">
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="51"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="84"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -6265,24 +6262,24 @@
       <c r="AA81" s="19"/>
     </row>
     <row r="82" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="49" t="s">
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="N82" s="50"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="51"/>
+      <c r="N82" s="83"/>
+      <c r="O82" s="83"/>
+      <c r="P82" s="84"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -6296,24 +6293,24 @@
       <c r="AA82" s="19"/>
     </row>
     <row r="83" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="49" t="s">
+      <c r="A83" s="75"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="51"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="84"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -6327,24 +6324,24 @@
       <c r="AA83" s="19"/>
     </row>
     <row r="84" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="49" t="s">
+      <c r="A84" s="75"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="N84" s="50"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="51"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="84"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19"/>
@@ -6358,8 +6355,8 @@
       <c r="AA84" s="19"/>
     </row>
     <row r="85" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="30" t="s">
         <v>187</v>
       </c>
@@ -6390,12 +6387,12 @@
       <c r="L85" s="31">
         <v>1</v>
       </c>
-      <c r="M85" s="49" t="s">
+      <c r="M85" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="51"/>
+      <c r="N85" s="83"/>
+      <c r="O85" s="83"/>
+      <c r="P85" s="84"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -6409,48 +6406,48 @@
       <c r="AA85" s="19"/>
     </row>
     <row r="86" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="59">
+      <c r="D86" s="74">
         <v>4</v>
       </c>
-      <c r="E86" s="59">
+      <c r="E86" s="74">
         <v>3</v>
       </c>
-      <c r="F86" s="59">
+      <c r="F86" s="74">
         <v>0</v>
       </c>
-      <c r="G86" s="59">
+      <c r="G86" s="74">
         <v>4</v>
       </c>
-      <c r="H86" s="59">
+      <c r="H86" s="74">
         <v>6</v>
       </c>
-      <c r="I86" s="59">
+      <c r="I86" s="74">
         <v>0</v>
       </c>
-      <c r="J86" s="59">
+      <c r="J86" s="74">
         <v>3</v>
       </c>
-      <c r="K86" s="59">
+      <c r="K86" s="74">
         <v>5</v>
       </c>
-      <c r="L86" s="59">
+      <c r="L86" s="74">
         <v>6</v>
       </c>
-      <c r="M86" s="49" t="s">
+      <c r="M86" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="51"/>
+      <c r="N86" s="83"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="84"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
@@ -6464,24 +6461,24 @@
       <c r="AA86" s="19"/>
     </row>
     <row r="87" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="49" t="s">
+      <c r="A87" s="75"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="51"/>
+      <c r="N87" s="83"/>
+      <c r="O87" s="83"/>
+      <c r="P87" s="84"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
@@ -6495,24 +6492,24 @@
       <c r="AA87" s="19"/>
     </row>
     <row r="88" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="49" t="s">
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="51"/>
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="84"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -6526,24 +6523,24 @@
       <c r="AA88" s="19"/>
     </row>
     <row r="89" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="49" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="51"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="84"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
@@ -32455,62 +32452,118 @@
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="L86:L89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="J33:J41"/>
-    <mergeCell ref="K33:K41"/>
-    <mergeCell ref="L33:L41"/>
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="K80:K84"/>
-    <mergeCell ref="L80:L84"/>
-    <mergeCell ref="J74:J79"/>
-    <mergeCell ref="K74:K79"/>
-    <mergeCell ref="L74:L79"/>
-    <mergeCell ref="H64:H73"/>
-    <mergeCell ref="I64:I73"/>
-    <mergeCell ref="J64:J73"/>
-    <mergeCell ref="K64:K73"/>
-    <mergeCell ref="L64:L73"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="E74:E79"/>
-    <mergeCell ref="F74:F79"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="I80:I84"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="K16:K22"/>
+    <mergeCell ref="L16:L22"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="K23:K31"/>
+    <mergeCell ref="L23:L31"/>
+    <mergeCell ref="M12:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="G23:G31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C33:C41"/>
+    <mergeCell ref="H33:H41"/>
+    <mergeCell ref="I33:I41"/>
+    <mergeCell ref="H23:H31"/>
+    <mergeCell ref="I23:I31"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="E33:E41"/>
+    <mergeCell ref="F33:F41"/>
+    <mergeCell ref="G33:G41"/>
     <mergeCell ref="A63:A73"/>
     <mergeCell ref="B63:B73"/>
     <mergeCell ref="C64:C73"/>
@@ -32535,118 +32588,62 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="G23:G31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C33:C41"/>
-    <mergeCell ref="H33:H41"/>
-    <mergeCell ref="I33:I41"/>
-    <mergeCell ref="H23:H31"/>
-    <mergeCell ref="I23:I31"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="E33:E41"/>
-    <mergeCell ref="F33:F41"/>
-    <mergeCell ref="G33:G41"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="K23:K31"/>
-    <mergeCell ref="L23:L31"/>
-    <mergeCell ref="M12:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="J16:J22"/>
-    <mergeCell ref="K16:K22"/>
-    <mergeCell ref="L16:L22"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="I80:I84"/>
+    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="K80:K84"/>
+    <mergeCell ref="L80:L84"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="K74:K79"/>
+    <mergeCell ref="L74:L79"/>
+    <mergeCell ref="H64:H73"/>
+    <mergeCell ref="I64:I73"/>
+    <mergeCell ref="J64:J73"/>
+    <mergeCell ref="K64:K73"/>
+    <mergeCell ref="L64:L73"/>
+    <mergeCell ref="J33:J41"/>
+    <mergeCell ref="K33:K41"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -32658,7 +32655,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32724,1810 +32721,1810 @@
         <v>209</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="65">
         <v>2</v>
       </c>
-      <c r="G2" s="96">
+      <c r="G2" s="65">
         <v>5</v>
       </c>
-      <c r="H2" s="96">
+      <c r="H2" s="65">
         <v>0</v>
       </c>
-      <c r="I2" s="96">
+      <c r="I2" s="65">
         <v>4</v>
       </c>
-      <c r="J2" s="96">
+      <c r="J2" s="65">
         <v>6</v>
       </c>
-      <c r="K2" s="96">
+      <c r="K2" s="65">
         <v>0</v>
       </c>
-      <c r="L2" s="96">
+      <c r="L2" s="65">
         <v>3</v>
       </c>
-      <c r="M2" s="98">
+      <c r="M2" s="67">
         <v>4</v>
       </c>
-      <c r="N2" s="96">
+      <c r="N2" s="65">
         <v>4</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="O2" s="64" t="s">
         <v>247</v>
       </c>
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="65">
         <v>4</v>
       </c>
-      <c r="G3" s="96">
+      <c r="G3" s="65">
         <v>6</v>
       </c>
-      <c r="H3" s="96">
+      <c r="H3" s="65">
         <v>0</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="65">
         <v>5</v>
       </c>
-      <c r="J3" s="96">
+      <c r="J3" s="65">
         <v>7</v>
       </c>
-      <c r="K3" s="96">
+      <c r="K3" s="65">
         <v>0</v>
       </c>
-      <c r="L3" s="96">
+      <c r="L3" s="65">
         <v>7</v>
       </c>
-      <c r="M3" s="98">
+      <c r="M3" s="67">
         <v>4</v>
       </c>
-      <c r="N3" s="96">
+      <c r="N3" s="65">
         <v>1</v>
       </c>
-      <c r="O3" s="95" t="s">
+      <c r="O3" s="64" t="s">
         <v>247</v>
       </c>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="65">
         <v>3</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="65">
         <v>6</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="65">
         <v>0</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="65">
         <v>3</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="65">
         <v>7</v>
       </c>
-      <c r="K4" s="96">
+      <c r="K4" s="65">
         <v>0</v>
       </c>
-      <c r="L4" s="96">
+      <c r="L4" s="65">
         <v>3</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="67">
         <v>2</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="65">
         <v>1</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="64" t="s">
         <v>248</v>
       </c>
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="65">
         <v>6</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="65">
         <v>7</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="65">
         <v>6</v>
       </c>
-      <c r="I5" s="96">
+      <c r="I5" s="65">
         <v>2</v>
       </c>
-      <c r="J5" s="96">
+      <c r="J5" s="65">
         <v>7</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="65">
         <v>1</v>
       </c>
-      <c r="L5" s="96">
+      <c r="L5" s="65">
         <v>2</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="67">
         <v>2</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="65">
         <v>1</v>
       </c>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="64" t="s">
         <v>249</v>
       </c>
       <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="65">
         <v>6</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="65">
         <v>7</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="65">
         <v>6</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="65">
         <v>2</v>
       </c>
-      <c r="J6" s="96">
+      <c r="J6" s="65">
         <v>7</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="65">
         <v>1</v>
       </c>
-      <c r="L6" s="96">
+      <c r="L6" s="65">
         <v>2</v>
       </c>
-      <c r="M6" s="98">
+      <c r="M6" s="67">
         <v>2</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="65">
         <v>1</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="64" t="s">
         <v>249</v>
       </c>
       <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="65">
         <v>6</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="65">
         <v>6</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="65">
         <v>0</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="65">
         <v>5</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="65">
         <v>6</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="65">
         <v>0</v>
       </c>
-      <c r="L7" s="96">
+      <c r="L7" s="65">
         <v>3</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7" s="67">
         <v>4</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="65">
         <v>2</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="64" t="s">
         <v>250</v>
       </c>
       <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="65">
         <v>4</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="65">
         <v>4</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="65">
         <v>0</v>
       </c>
-      <c r="I8" s="96">
+      <c r="I8" s="65">
         <v>6</v>
       </c>
-      <c r="J8" s="96">
+      <c r="J8" s="65">
         <v>5</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="96">
+      <c r="L8" s="65">
         <v>3</v>
       </c>
-      <c r="M8" s="98">
+      <c r="M8" s="67">
         <v>4</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="65">
         <v>3</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="O8" s="64" t="s">
         <v>250</v>
       </c>
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="65">
         <v>6</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="65">
         <v>3</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="65">
         <v>7</v>
       </c>
-      <c r="I9" s="96">
+      <c r="I9" s="65">
         <v>3</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J9" s="65">
         <v>3</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="65">
         <v>1</v>
       </c>
-      <c r="L9" s="96">
+      <c r="L9" s="65">
         <v>1</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="67">
         <v>1</v>
       </c>
-      <c r="N9" s="96">
+      <c r="N9" s="65">
         <v>1</v>
       </c>
-      <c r="O9" s="95" t="s">
+      <c r="O9" s="64" t="s">
         <v>248</v>
       </c>
       <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="65">
         <v>6</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="65">
         <v>3</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="65">
         <v>6</v>
       </c>
-      <c r="I10" s="96">
+      <c r="I10" s="65">
         <v>2</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="65">
         <v>6</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="65">
         <v>1</v>
       </c>
-      <c r="L10" s="96">
+      <c r="L10" s="65">
         <v>4</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="67">
         <v>1</v>
       </c>
-      <c r="N10" s="96">
+      <c r="N10" s="65">
         <v>2</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="64" t="s">
         <v>249</v>
       </c>
       <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="65">
         <v>6</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="65">
         <v>4</v>
       </c>
-      <c r="H11" s="96">
+      <c r="H11" s="65">
         <v>6</v>
       </c>
-      <c r="I11" s="96">
+      <c r="I11" s="65">
         <v>2</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="65">
         <v>3</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="65">
         <v>1</v>
       </c>
-      <c r="L11" s="96">
+      <c r="L11" s="65">
         <v>2</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="67">
         <v>1</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="65">
         <v>1</v>
       </c>
-      <c r="O11" s="95" t="s">
+      <c r="O11" s="64" t="s">
         <v>249</v>
       </c>
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="50">
         <v>35</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="65">
         <v>6</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="65">
         <v>7</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="65">
         <v>6</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="65">
         <v>4</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="65">
         <v>5</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="65">
         <v>4</v>
       </c>
-      <c r="L12" s="96">
+      <c r="L12" s="65">
         <v>5</v>
       </c>
-      <c r="M12" s="98">
+      <c r="M12" s="67">
         <v>4</v>
       </c>
-      <c r="N12" s="96">
+      <c r="N12" s="65">
         <v>2</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="64" t="s">
         <v>248</v>
       </c>
       <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="50">
         <v>82</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="65">
         <v>5</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="65">
         <v>4</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="65">
         <v>5</v>
       </c>
-      <c r="I13" s="96">
+      <c r="I13" s="65">
         <v>4</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="65">
         <v>5</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="65">
         <v>3</v>
       </c>
-      <c r="L13" s="96">
+      <c r="L13" s="65">
         <v>5</v>
       </c>
-      <c r="M13" s="98">
+      <c r="M13" s="67">
         <v>4</v>
       </c>
-      <c r="N13" s="96">
+      <c r="N13" s="65">
         <v>2</v>
       </c>
-      <c r="O13" s="95" t="s">
+      <c r="O13" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="50">
+        <v>82</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="65">
+        <v>3</v>
+      </c>
+      <c r="G14" s="65">
+        <v>3</v>
+      </c>
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="65">
+        <v>2</v>
+      </c>
+      <c r="J14" s="65">
+        <v>2</v>
+      </c>
+      <c r="K14" s="65">
+        <v>3</v>
+      </c>
+      <c r="L14" s="65">
+        <v>2</v>
+      </c>
+      <c r="M14" s="67">
+        <v>2</v>
+      </c>
+      <c r="N14" s="65">
+        <v>1</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="50">
+        <v>13</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="65">
+        <v>4</v>
+      </c>
+      <c r="G15" s="65">
+        <v>3</v>
+      </c>
+      <c r="H15" s="65">
+        <v>0</v>
+      </c>
+      <c r="I15" s="65">
+        <v>4</v>
+      </c>
+      <c r="J15" s="65">
+        <v>6</v>
+      </c>
+      <c r="K15" s="65">
+        <v>0</v>
+      </c>
+      <c r="L15" s="65">
+        <v>3</v>
+      </c>
+      <c r="M15" s="67">
+        <v>5</v>
+      </c>
+      <c r="N15" s="65">
+        <v>6</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="65">
+        <v>7</v>
+      </c>
+      <c r="G16" s="65">
+        <v>7</v>
+      </c>
+      <c r="H16" s="65">
+        <v>5</v>
+      </c>
+      <c r="I16" s="65">
+        <v>7</v>
+      </c>
+      <c r="J16" s="65">
+        <v>4</v>
+      </c>
+      <c r="K16" s="65">
+        <v>0</v>
+      </c>
+      <c r="L16" s="65">
+        <v>3</v>
+      </c>
+      <c r="M16" s="65">
+        <v>6</v>
+      </c>
+      <c r="N16" s="65">
+        <v>2</v>
+      </c>
+      <c r="O16" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="65">
+        <v>7</v>
+      </c>
+      <c r="G17" s="65">
+        <v>7</v>
+      </c>
+      <c r="H17" s="65">
+        <v>0</v>
+      </c>
+      <c r="I17" s="65">
+        <v>7</v>
+      </c>
+      <c r="J17" s="65">
+        <v>4</v>
+      </c>
+      <c r="K17" s="65">
+        <v>0</v>
+      </c>
+      <c r="L17" s="65">
+        <v>3</v>
+      </c>
+      <c r="M17" s="65">
+        <v>6</v>
+      </c>
+      <c r="N17" s="65">
+        <v>2</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B18" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="65">
+        <v>7</v>
+      </c>
+      <c r="G18" s="65">
+        <v>7</v>
+      </c>
+      <c r="H18" s="65">
+        <v>7</v>
+      </c>
+      <c r="I18" s="65">
+        <v>2</v>
+      </c>
+      <c r="J18" s="65">
+        <v>5</v>
+      </c>
+      <c r="K18" s="65">
+        <v>1</v>
+      </c>
+      <c r="L18" s="65">
+        <v>2</v>
+      </c>
+      <c r="M18" s="65">
+        <v>1</v>
+      </c>
+      <c r="N18" s="65">
+        <v>1</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="65">
+        <v>7</v>
+      </c>
+      <c r="G19" s="65">
+        <v>4</v>
+      </c>
+      <c r="H19" s="65">
+        <v>7</v>
+      </c>
+      <c r="I19" s="65">
+        <v>2</v>
+      </c>
+      <c r="J19" s="65">
+        <v>4</v>
+      </c>
+      <c r="K19" s="65">
+        <v>1</v>
+      </c>
+      <c r="L19" s="65">
+        <v>2</v>
+      </c>
+      <c r="M19" s="65">
+        <v>1</v>
+      </c>
+      <c r="N19" s="65">
+        <v>1</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="81">
-        <v>82</v>
-      </c>
-      <c r="D14" s="86" t="s">
+      <c r="C20" s="50">
+        <v>890</v>
+      </c>
+      <c r="D20" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="96">
+      <c r="E20" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="65">
+        <v>4</v>
+      </c>
+      <c r="G20" s="65">
+        <v>5</v>
+      </c>
+      <c r="H20" s="65">
+        <v>7</v>
+      </c>
+      <c r="I20" s="65">
+        <v>5</v>
+      </c>
+      <c r="J20" s="65">
+        <v>5</v>
+      </c>
+      <c r="K20" s="65">
+        <v>2</v>
+      </c>
+      <c r="L20" s="65">
+        <v>4</v>
+      </c>
+      <c r="M20" s="65">
+        <v>4</v>
+      </c>
+      <c r="N20" s="65">
+        <v>2</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="50">
+        <v>101</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="65">
+        <v>6</v>
+      </c>
+      <c r="G21" s="65">
+        <v>4</v>
+      </c>
+      <c r="H21" s="65">
+        <v>5</v>
+      </c>
+      <c r="I21" s="65">
+        <v>4</v>
+      </c>
+      <c r="J21" s="65">
+        <v>5</v>
+      </c>
+      <c r="K21" s="65">
+        <v>2</v>
+      </c>
+      <c r="L21" s="65">
+        <v>4</v>
+      </c>
+      <c r="M21" s="65">
         <v>3</v>
       </c>
-      <c r="G14" s="96">
+      <c r="N21" s="65">
+        <v>2</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="50">
+        <v>101</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="65">
+        <v>6</v>
+      </c>
+      <c r="G22" s="65">
+        <v>5</v>
+      </c>
+      <c r="H22" s="65">
+        <v>6</v>
+      </c>
+      <c r="I22" s="65">
+        <v>4</v>
+      </c>
+      <c r="J22" s="65">
+        <v>5</v>
+      </c>
+      <c r="K22" s="65">
+        <v>2</v>
+      </c>
+      <c r="L22" s="65">
+        <v>5</v>
+      </c>
+      <c r="M22" s="65">
         <v>3</v>
       </c>
-      <c r="H14" s="96">
+      <c r="N22" s="65">
+        <v>2</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="65">
+        <v>2</v>
+      </c>
+      <c r="G23" s="65">
         <v>1</v>
       </c>
-      <c r="I14" s="96">
+      <c r="H23" s="65">
+        <v>0</v>
+      </c>
+      <c r="I23" s="65">
+        <v>3</v>
+      </c>
+      <c r="J23" s="65">
+        <v>4</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0</v>
+      </c>
+      <c r="L23" s="65">
+        <v>1</v>
+      </c>
+      <c r="M23" s="65">
+        <v>3</v>
+      </c>
+      <c r="N23" s="65">
+        <v>3</v>
+      </c>
+      <c r="O23" s="64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="65">
+        <v>5</v>
+      </c>
+      <c r="G24" s="65">
+        <v>4</v>
+      </c>
+      <c r="H24" s="65">
+        <v>4</v>
+      </c>
+      <c r="I24" s="65">
+        <v>3</v>
+      </c>
+      <c r="J24" s="65">
+        <v>4</v>
+      </c>
+      <c r="K24" s="65">
+        <v>1</v>
+      </c>
+      <c r="L24" s="65">
+        <v>1</v>
+      </c>
+      <c r="M24" s="65">
+        <v>1</v>
+      </c>
+      <c r="N24" s="65">
+        <v>1</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="65">
+        <v>7</v>
+      </c>
+      <c r="G25" s="65">
+        <v>7</v>
+      </c>
+      <c r="H25" s="65">
+        <v>4</v>
+      </c>
+      <c r="I25" s="65">
+        <v>3</v>
+      </c>
+      <c r="J25" s="65">
+        <v>4</v>
+      </c>
+      <c r="K25" s="65">
+        <v>3</v>
+      </c>
+      <c r="L25" s="65">
+        <v>1</v>
+      </c>
+      <c r="M25" s="65">
+        <v>4</v>
+      </c>
+      <c r="N25" s="65">
         <v>2</v>
       </c>
-      <c r="J14" s="96">
+      <c r="O25" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="65">
+        <v>5</v>
+      </c>
+      <c r="G26" s="65">
+        <v>5</v>
+      </c>
+      <c r="H26" s="65">
+        <v>4</v>
+      </c>
+      <c r="I26" s="65">
         <v>2</v>
       </c>
-      <c r="K14" s="96">
+      <c r="J26" s="65">
         <v>3</v>
       </c>
-      <c r="L14" s="96">
+      <c r="K26" s="65">
+        <v>1</v>
+      </c>
+      <c r="L26" s="65">
+        <v>1</v>
+      </c>
+      <c r="M26" s="65">
         <v>2</v>
       </c>
-      <c r="M14" s="98">
+      <c r="N26" s="65">
+        <v>1</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="65">
+        <v>6</v>
+      </c>
+      <c r="G27" s="65">
+        <v>6</v>
+      </c>
+      <c r="H27" s="65">
+        <v>4</v>
+      </c>
+      <c r="I27" s="65">
         <v>2</v>
       </c>
-      <c r="N14" s="96">
+      <c r="J27" s="65">
+        <v>5</v>
+      </c>
+      <c r="K27" s="65">
+        <v>3</v>
+      </c>
+      <c r="L27" s="65">
         <v>1</v>
       </c>
-      <c r="O14" s="95" t="s">
+      <c r="M27" s="65">
+        <v>2</v>
+      </c>
+      <c r="N27" s="65">
+        <v>2</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="65">
+        <v>5</v>
+      </c>
+      <c r="G28" s="65">
+        <v>5</v>
+      </c>
+      <c r="H28" s="65">
+        <v>0</v>
+      </c>
+      <c r="I28" s="65">
+        <v>3</v>
+      </c>
+      <c r="J28" s="65">
+        <v>5</v>
+      </c>
+      <c r="K28" s="65">
+        <v>0</v>
+      </c>
+      <c r="L28" s="65">
+        <v>2</v>
+      </c>
+      <c r="M28" s="65">
+        <v>1</v>
+      </c>
+      <c r="N28" s="65">
+        <v>1</v>
+      </c>
+      <c r="O28" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B29" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="81">
-        <v>13</v>
-      </c>
-      <c r="D15" s="86" t="s">
+      <c r="C29" s="50">
+        <v>74</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="96">
+      <c r="E29" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="65">
+        <v>6</v>
+      </c>
+      <c r="G29" s="65">
+        <v>5</v>
+      </c>
+      <c r="H29" s="65">
+        <v>0</v>
+      </c>
+      <c r="I29" s="65">
         <v>4</v>
       </c>
-      <c r="G15" s="96">
+      <c r="J29" s="65">
+        <v>6</v>
+      </c>
+      <c r="K29" s="65">
+        <v>0</v>
+      </c>
+      <c r="L29" s="65">
+        <v>4</v>
+      </c>
+      <c r="M29" s="65">
+        <v>4</v>
+      </c>
+      <c r="N29" s="65">
+        <v>4</v>
+      </c>
+      <c r="O29" s="64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="65">
+        <v>6</v>
+      </c>
+      <c r="G30" s="65">
+        <v>4</v>
+      </c>
+      <c r="H30" s="65">
+        <v>0</v>
+      </c>
+      <c r="I30" s="65">
+        <v>6</v>
+      </c>
+      <c r="J30" s="65">
+        <v>4</v>
+      </c>
+      <c r="K30" s="65">
+        <v>0</v>
+      </c>
+      <c r="L30" s="65">
+        <v>4</v>
+      </c>
+      <c r="M30" s="65">
+        <v>7</v>
+      </c>
+      <c r="N30" s="65">
+        <v>5</v>
+      </c>
+      <c r="O30" s="64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="65">
+        <v>4</v>
+      </c>
+      <c r="G31" s="65">
+        <v>5</v>
+      </c>
+      <c r="H31" s="65">
+        <v>7</v>
+      </c>
+      <c r="I31" s="65">
+        <v>4</v>
+      </c>
+      <c r="J31" s="65">
+        <v>4</v>
+      </c>
+      <c r="K31" s="65">
         <v>3</v>
       </c>
-      <c r="H15" s="96">
+      <c r="L31" s="65">
+        <v>4</v>
+      </c>
+      <c r="M31" s="65">
+        <v>2</v>
+      </c>
+      <c r="N31" s="65">
+        <v>4</v>
+      </c>
+      <c r="O31" s="64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="65">
+        <v>4</v>
+      </c>
+      <c r="G32" s="65">
+        <v>5</v>
+      </c>
+      <c r="H32" s="65">
+        <v>5</v>
+      </c>
+      <c r="I32" s="65">
+        <v>4</v>
+      </c>
+      <c r="J32" s="65">
+        <v>4</v>
+      </c>
+      <c r="K32" s="65">
+        <v>3</v>
+      </c>
+      <c r="L32" s="65">
+        <v>4</v>
+      </c>
+      <c r="M32" s="65">
+        <v>2</v>
+      </c>
+      <c r="N32" s="65">
+        <v>4</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="65">
+        <v>5</v>
+      </c>
+      <c r="G33" s="65">
+        <v>4</v>
+      </c>
+      <c r="H33" s="65">
+        <v>4</v>
+      </c>
+      <c r="I33" s="65">
+        <v>4</v>
+      </c>
+      <c r="J33" s="65">
+        <v>3</v>
+      </c>
+      <c r="K33" s="65">
+        <v>2</v>
+      </c>
+      <c r="L33" s="65">
+        <v>5</v>
+      </c>
+      <c r="M33" s="65">
+        <v>3</v>
+      </c>
+      <c r="N33" s="65">
+        <v>2</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="65">
+        <v>5</v>
+      </c>
+      <c r="G34" s="65">
+        <v>5</v>
+      </c>
+      <c r="H34" s="65">
+        <v>6</v>
+      </c>
+      <c r="I34" s="65">
+        <v>2</v>
+      </c>
+      <c r="J34" s="65">
+        <v>2</v>
+      </c>
+      <c r="K34" s="65">
+        <v>2</v>
+      </c>
+      <c r="L34" s="65">
+        <v>4</v>
+      </c>
+      <c r="M34" s="65">
+        <v>2</v>
+      </c>
+      <c r="N34" s="65">
+        <v>2</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="65">
+        <v>5</v>
+      </c>
+      <c r="G35" s="65">
+        <v>5</v>
+      </c>
+      <c r="H35" s="65">
+        <v>5</v>
+      </c>
+      <c r="I35" s="65">
+        <v>5</v>
+      </c>
+      <c r="J35" s="65">
+        <v>4</v>
+      </c>
+      <c r="K35" s="65">
         <v>0</v>
       </c>
-      <c r="I15" s="96">
+      <c r="L35" s="65">
+        <v>5</v>
+      </c>
+      <c r="M35" s="65">
         <v>4</v>
       </c>
-      <c r="J15" s="96">
+      <c r="N35" s="65">
+        <v>4</v>
+      </c>
+      <c r="O35" s="64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="65">
+        <v>5</v>
+      </c>
+      <c r="G36" s="65">
+        <v>4</v>
+      </c>
+      <c r="H36" s="65">
+        <v>0</v>
+      </c>
+      <c r="I36" s="65">
+        <v>5</v>
+      </c>
+      <c r="J36" s="65">
+        <v>4</v>
+      </c>
+      <c r="K36" s="65">
+        <v>0</v>
+      </c>
+      <c r="L36" s="65">
+        <v>4</v>
+      </c>
+      <c r="M36" s="65">
+        <v>4</v>
+      </c>
+      <c r="N36" s="65">
+        <v>4</v>
+      </c>
+      <c r="O36" s="64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="66">
         <v>6</v>
       </c>
-      <c r="K15" s="96">
-        <v>0</v>
-      </c>
-      <c r="L15" s="96">
+      <c r="G37" s="66">
+        <v>5</v>
+      </c>
+      <c r="H37" s="66">
         <v>3</v>
       </c>
-      <c r="M15" s="98">
+      <c r="I37" s="66">
+        <v>4</v>
+      </c>
+      <c r="J37" s="66">
+        <v>4</v>
+      </c>
+      <c r="K37" s="66">
+        <v>4</v>
+      </c>
+      <c r="L37" s="66">
+        <v>4</v>
+      </c>
+      <c r="M37" s="66">
         <v>5</v>
       </c>
-      <c r="N15" s="96">
+      <c r="N37" s="66">
+        <v>4</v>
+      </c>
+      <c r="O37" s="64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="65">
         <v>6</v>
       </c>
-      <c r="O15" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="96">
+      <c r="G38" s="65">
+        <v>6</v>
+      </c>
+      <c r="H38" s="65">
+        <v>6</v>
+      </c>
+      <c r="I38" s="65">
+        <v>5</v>
+      </c>
+      <c r="J38" s="65">
+        <v>6</v>
+      </c>
+      <c r="K38" s="65">
+        <v>4</v>
+      </c>
+      <c r="L38" s="65">
         <v>7</v>
       </c>
-      <c r="G16" s="96">
+      <c r="M38" s="65">
+        <v>6</v>
+      </c>
+      <c r="N38" s="65">
+        <v>6</v>
+      </c>
+      <c r="O38" s="64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="65">
+        <v>6</v>
+      </c>
+      <c r="G39" s="65">
+        <v>6</v>
+      </c>
+      <c r="H39" s="65">
         <v>7</v>
       </c>
-      <c r="H16" s="96">
-        <v>5</v>
-      </c>
-      <c r="I16" s="96">
+      <c r="I39" s="65">
         <v>7</v>
       </c>
-      <c r="J16" s="96">
+      <c r="J39" s="65">
+        <v>7</v>
+      </c>
+      <c r="K39" s="65">
+        <v>6</v>
+      </c>
+      <c r="L39" s="65">
         <v>4</v>
       </c>
-      <c r="K16" s="96">
-        <v>0</v>
-      </c>
-      <c r="L16" s="96">
+      <c r="M39" s="65">
+        <v>6</v>
+      </c>
+      <c r="N39" s="65">
         <v>3</v>
       </c>
-      <c r="M16" s="96">
-        <v>6</v>
-      </c>
-      <c r="N16" s="96">
-        <v>2</v>
-      </c>
-      <c r="O16" s="95" t="s">
+      <c r="O39" s="64" t="s">
         <v>252</v>
-      </c>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="96">
-        <v>7</v>
-      </c>
-      <c r="G17" s="96">
-        <v>7</v>
-      </c>
-      <c r="H17" s="96">
-        <v>0</v>
-      </c>
-      <c r="I17" s="96">
-        <v>7</v>
-      </c>
-      <c r="J17" s="96">
-        <v>4</v>
-      </c>
-      <c r="K17" s="96">
-        <v>0</v>
-      </c>
-      <c r="L17" s="96">
-        <v>3</v>
-      </c>
-      <c r="M17" s="96">
-        <v>6</v>
-      </c>
-      <c r="N17" s="96">
-        <v>2</v>
-      </c>
-      <c r="O17" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="96">
-        <v>7</v>
-      </c>
-      <c r="G18" s="96">
-        <v>7</v>
-      </c>
-      <c r="H18" s="96">
-        <v>7</v>
-      </c>
-      <c r="I18" s="96">
-        <v>2</v>
-      </c>
-      <c r="J18" s="96">
-        <v>5</v>
-      </c>
-      <c r="K18" s="96">
-        <v>1</v>
-      </c>
-      <c r="L18" s="96">
-        <v>2</v>
-      </c>
-      <c r="M18" s="96">
-        <v>1</v>
-      </c>
-      <c r="N18" s="96">
-        <v>1</v>
-      </c>
-      <c r="O18" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" s="96">
-        <v>7</v>
-      </c>
-      <c r="G19" s="96">
-        <v>4</v>
-      </c>
-      <c r="H19" s="96">
-        <v>7</v>
-      </c>
-      <c r="I19" s="96">
-        <v>2</v>
-      </c>
-      <c r="J19" s="96">
-        <v>4</v>
-      </c>
-      <c r="K19" s="96">
-        <v>1</v>
-      </c>
-      <c r="L19" s="96">
-        <v>2</v>
-      </c>
-      <c r="M19" s="96">
-        <v>1</v>
-      </c>
-      <c r="N19" s="96">
-        <v>1</v>
-      </c>
-      <c r="O19" s="95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="81">
-        <v>890</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="96">
-        <v>4</v>
-      </c>
-      <c r="G20" s="96">
-        <v>5</v>
-      </c>
-      <c r="H20" s="96">
-        <v>7</v>
-      </c>
-      <c r="I20" s="96">
-        <v>5</v>
-      </c>
-      <c r="J20" s="96">
-        <v>5</v>
-      </c>
-      <c r="K20" s="96">
-        <v>2</v>
-      </c>
-      <c r="L20" s="96">
-        <v>4</v>
-      </c>
-      <c r="M20" s="96">
-        <v>4</v>
-      </c>
-      <c r="N20" s="96">
-        <v>2</v>
-      </c>
-      <c r="O20" s="95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="81">
-        <v>101</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="96">
-        <v>6</v>
-      </c>
-      <c r="G21" s="96">
-        <v>4</v>
-      </c>
-      <c r="H21" s="96">
-        <v>5</v>
-      </c>
-      <c r="I21" s="96">
-        <v>4</v>
-      </c>
-      <c r="J21" s="96">
-        <v>5</v>
-      </c>
-      <c r="K21" s="96">
-        <v>2</v>
-      </c>
-      <c r="L21" s="96">
-        <v>4</v>
-      </c>
-      <c r="M21" s="96">
-        <v>3</v>
-      </c>
-      <c r="N21" s="96">
-        <v>2</v>
-      </c>
-      <c r="O21" s="95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="81">
-        <v>101</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="96">
-        <v>6</v>
-      </c>
-      <c r="G22" s="96">
-        <v>5</v>
-      </c>
-      <c r="H22" s="96">
-        <v>6</v>
-      </c>
-      <c r="I22" s="96">
-        <v>4</v>
-      </c>
-      <c r="J22" s="96">
-        <v>5</v>
-      </c>
-      <c r="K22" s="96">
-        <v>2</v>
-      </c>
-      <c r="L22" s="96">
-        <v>5</v>
-      </c>
-      <c r="M22" s="96">
-        <v>3</v>
-      </c>
-      <c r="N22" s="96">
-        <v>2</v>
-      </c>
-      <c r="O22" s="95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="96">
-        <v>2</v>
-      </c>
-      <c r="G23" s="96">
-        <v>1</v>
-      </c>
-      <c r="H23" s="96">
-        <v>0</v>
-      </c>
-      <c r="I23" s="96">
-        <v>3</v>
-      </c>
-      <c r="J23" s="96">
-        <v>4</v>
-      </c>
-      <c r="K23" s="96">
-        <v>0</v>
-      </c>
-      <c r="L23" s="96">
-        <v>1</v>
-      </c>
-      <c r="M23" s="96">
-        <v>3</v>
-      </c>
-      <c r="N23" s="96">
-        <v>3</v>
-      </c>
-      <c r="O23" s="95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="96">
-        <v>5</v>
-      </c>
-      <c r="G24" s="96">
-        <v>4</v>
-      </c>
-      <c r="H24" s="96">
-        <v>4</v>
-      </c>
-      <c r="I24" s="96">
-        <v>3</v>
-      </c>
-      <c r="J24" s="96">
-        <v>4</v>
-      </c>
-      <c r="K24" s="96">
-        <v>1</v>
-      </c>
-      <c r="L24" s="96">
-        <v>1</v>
-      </c>
-      <c r="M24" s="96">
-        <v>1</v>
-      </c>
-      <c r="N24" s="96">
-        <v>1</v>
-      </c>
-      <c r="O24" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="96">
-        <v>7</v>
-      </c>
-      <c r="G25" s="96">
-        <v>7</v>
-      </c>
-      <c r="H25" s="96">
-        <v>4</v>
-      </c>
-      <c r="I25" s="96">
-        <v>3</v>
-      </c>
-      <c r="J25" s="96">
-        <v>4</v>
-      </c>
-      <c r="K25" s="96">
-        <v>3</v>
-      </c>
-      <c r="L25" s="96">
-        <v>1</v>
-      </c>
-      <c r="M25" s="96">
-        <v>4</v>
-      </c>
-      <c r="N25" s="96">
-        <v>2</v>
-      </c>
-      <c r="O25" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="96">
-        <v>5</v>
-      </c>
-      <c r="G26" s="96">
-        <v>5</v>
-      </c>
-      <c r="H26" s="96">
-        <v>4</v>
-      </c>
-      <c r="I26" s="96">
-        <v>2</v>
-      </c>
-      <c r="J26" s="96">
-        <v>3</v>
-      </c>
-      <c r="K26" s="96">
-        <v>1</v>
-      </c>
-      <c r="L26" s="96">
-        <v>1</v>
-      </c>
-      <c r="M26" s="96">
-        <v>2</v>
-      </c>
-      <c r="N26" s="96">
-        <v>1</v>
-      </c>
-      <c r="O26" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="96">
-        <v>6</v>
-      </c>
-      <c r="G27" s="96">
-        <v>6</v>
-      </c>
-      <c r="H27" s="96">
-        <v>4</v>
-      </c>
-      <c r="I27" s="96">
-        <v>2</v>
-      </c>
-      <c r="J27" s="96">
-        <v>5</v>
-      </c>
-      <c r="K27" s="96">
-        <v>3</v>
-      </c>
-      <c r="L27" s="96">
-        <v>1</v>
-      </c>
-      <c r="M27" s="96">
-        <v>2</v>
-      </c>
-      <c r="N27" s="96">
-        <v>2</v>
-      </c>
-      <c r="O27" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="96">
-        <v>5</v>
-      </c>
-      <c r="G28" s="96">
-        <v>5</v>
-      </c>
-      <c r="H28" s="96">
-        <v>0</v>
-      </c>
-      <c r="I28" s="96">
-        <v>3</v>
-      </c>
-      <c r="J28" s="96">
-        <v>5</v>
-      </c>
-      <c r="K28" s="96">
-        <v>0</v>
-      </c>
-      <c r="L28" s="96">
-        <v>2</v>
-      </c>
-      <c r="M28" s="96">
-        <v>1</v>
-      </c>
-      <c r="N28" s="96">
-        <v>1</v>
-      </c>
-      <c r="O28" s="95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="81">
-        <v>74</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="96">
-        <v>6</v>
-      </c>
-      <c r="G29" s="96">
-        <v>5</v>
-      </c>
-      <c r="H29" s="96">
-        <v>0</v>
-      </c>
-      <c r="I29" s="96">
-        <v>4</v>
-      </c>
-      <c r="J29" s="96">
-        <v>6</v>
-      </c>
-      <c r="K29" s="96">
-        <v>0</v>
-      </c>
-      <c r="L29" s="96">
-        <v>4</v>
-      </c>
-      <c r="M29" s="96">
-        <v>4</v>
-      </c>
-      <c r="N29" s="96">
-        <v>4</v>
-      </c>
-      <c r="O29" s="95" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="96">
-        <v>6</v>
-      </c>
-      <c r="G30" s="96">
-        <v>4</v>
-      </c>
-      <c r="H30" s="96">
-        <v>0</v>
-      </c>
-      <c r="I30" s="96">
-        <v>6</v>
-      </c>
-      <c r="J30" s="96">
-        <v>4</v>
-      </c>
-      <c r="K30" s="96">
-        <v>0</v>
-      </c>
-      <c r="L30" s="96">
-        <v>4</v>
-      </c>
-      <c r="M30" s="96">
-        <v>7</v>
-      </c>
-      <c r="N30" s="96">
-        <v>5</v>
-      </c>
-      <c r="O30" s="95" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="96">
-        <v>4</v>
-      </c>
-      <c r="G31" s="96">
-        <v>5</v>
-      </c>
-      <c r="H31" s="96">
-        <v>7</v>
-      </c>
-      <c r="I31" s="96">
-        <v>4</v>
-      </c>
-      <c r="J31" s="96">
-        <v>4</v>
-      </c>
-      <c r="K31" s="96">
-        <v>3</v>
-      </c>
-      <c r="L31" s="96">
-        <v>4</v>
-      </c>
-      <c r="M31" s="96">
-        <v>2</v>
-      </c>
-      <c r="N31" s="96">
-        <v>4</v>
-      </c>
-      <c r="O31" s="95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="96">
-        <v>4</v>
-      </c>
-      <c r="G32" s="96">
-        <v>5</v>
-      </c>
-      <c r="H32" s="96">
-        <v>5</v>
-      </c>
-      <c r="I32" s="96">
-        <v>4</v>
-      </c>
-      <c r="J32" s="96">
-        <v>4</v>
-      </c>
-      <c r="K32" s="96">
-        <v>3</v>
-      </c>
-      <c r="L32" s="96">
-        <v>4</v>
-      </c>
-      <c r="M32" s="96">
-        <v>2</v>
-      </c>
-      <c r="N32" s="96">
-        <v>4</v>
-      </c>
-      <c r="O32" s="95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="96">
-        <v>5</v>
-      </c>
-      <c r="G33" s="96">
-        <v>4</v>
-      </c>
-      <c r="H33" s="96">
-        <v>4</v>
-      </c>
-      <c r="I33" s="96">
-        <v>4</v>
-      </c>
-      <c r="J33" s="96">
-        <v>3</v>
-      </c>
-      <c r="K33" s="96">
-        <v>2</v>
-      </c>
-      <c r="L33" s="96">
-        <v>5</v>
-      </c>
-      <c r="M33" s="96">
-        <v>3</v>
-      </c>
-      <c r="N33" s="96">
-        <v>2</v>
-      </c>
-      <c r="O33" s="95" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="96">
-        <v>5</v>
-      </c>
-      <c r="G34" s="96">
-        <v>5</v>
-      </c>
-      <c r="H34" s="96">
-        <v>6</v>
-      </c>
-      <c r="I34" s="96">
-        <v>2</v>
-      </c>
-      <c r="J34" s="96">
-        <v>2</v>
-      </c>
-      <c r="K34" s="96">
-        <v>2</v>
-      </c>
-      <c r="L34" s="96">
-        <v>4</v>
-      </c>
-      <c r="M34" s="96">
-        <v>2</v>
-      </c>
-      <c r="N34" s="96">
-        <v>2</v>
-      </c>
-      <c r="O34" s="95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="96">
-        <v>5</v>
-      </c>
-      <c r="G35" s="96">
-        <v>5</v>
-      </c>
-      <c r="H35" s="96">
-        <v>5</v>
-      </c>
-      <c r="I35" s="96">
-        <v>5</v>
-      </c>
-      <c r="J35" s="96">
-        <v>4</v>
-      </c>
-      <c r="K35" s="96">
-        <v>0</v>
-      </c>
-      <c r="L35" s="96">
-        <v>5</v>
-      </c>
-      <c r="M35" s="96">
-        <v>4</v>
-      </c>
-      <c r="N35" s="96">
-        <v>4</v>
-      </c>
-      <c r="O35" s="95" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="96">
-        <v>5</v>
-      </c>
-      <c r="G36" s="96">
-        <v>4</v>
-      </c>
-      <c r="H36" s="96">
-        <v>0</v>
-      </c>
-      <c r="I36" s="96">
-        <v>5</v>
-      </c>
-      <c r="J36" s="96">
-        <v>4</v>
-      </c>
-      <c r="K36" s="96">
-        <v>0</v>
-      </c>
-      <c r="L36" s="96">
-        <v>4</v>
-      </c>
-      <c r="M36" s="96">
-        <v>4</v>
-      </c>
-      <c r="N36" s="96">
-        <v>4</v>
-      </c>
-      <c r="O36" s="95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="97">
-        <v>6</v>
-      </c>
-      <c r="G37" s="97">
-        <v>5</v>
-      </c>
-      <c r="H37" s="97">
-        <v>3</v>
-      </c>
-      <c r="I37" s="97">
-        <v>4</v>
-      </c>
-      <c r="J37" s="97">
-        <v>4</v>
-      </c>
-      <c r="K37" s="97">
-        <v>4</v>
-      </c>
-      <c r="L37" s="97">
-        <v>4</v>
-      </c>
-      <c r="M37" s="97">
-        <v>5</v>
-      </c>
-      <c r="N37" s="97">
-        <v>4</v>
-      </c>
-      <c r="O37" s="95" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="96">
-        <v>6</v>
-      </c>
-      <c r="G38" s="96">
-        <v>6</v>
-      </c>
-      <c r="H38" s="96">
-        <v>6</v>
-      </c>
-      <c r="I38" s="96">
-        <v>5</v>
-      </c>
-      <c r="J38" s="96">
-        <v>6</v>
-      </c>
-      <c r="K38" s="96">
-        <v>4</v>
-      </c>
-      <c r="L38" s="96">
-        <v>7</v>
-      </c>
-      <c r="M38" s="96">
-        <v>6</v>
-      </c>
-      <c r="N38" s="96">
-        <v>6</v>
-      </c>
-      <c r="O38" s="95" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="96">
-        <v>6</v>
-      </c>
-      <c r="G39" s="96">
-        <v>6</v>
-      </c>
-      <c r="H39" s="96">
-        <v>7</v>
-      </c>
-      <c r="I39" s="96">
-        <v>7</v>
-      </c>
-      <c r="J39" s="96">
-        <v>7</v>
-      </c>
-      <c r="K39" s="96">
-        <v>6</v>
-      </c>
-      <c r="L39" s="96">
-        <v>4</v>
-      </c>
-      <c r="M39" s="96">
-        <v>6</v>
-      </c>
-      <c r="N39" s="96">
-        <v>3</v>
-      </c>
-      <c r="O39" s="95" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
